--- a/meetings_dumped/schmit_cabinet.xlsx
+++ b/meetings_dumped/schmit_cabinet.xlsx
@@ -12526,7 +12526,7 @@
     <row r="174">
       <c r="A174" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Ana Carla  Pereira, Antoine Kasel</t>
+          <t>Ana Carla  Pereira, Antoine Kasel, Anouk Faber</t>
         </is>
       </c>
       <c r="B174" s="2448" t="inlineStr">
@@ -12580,7 +12580,7 @@
     <row r="176">
       <c r="A176" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B176" s="2448" t="inlineStr">
@@ -12607,7 +12607,7 @@
     <row r="177">
       <c r="A177" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira, Anouk Faber</t>
+          <t>Anouk Faber, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B177" s="2448" t="inlineStr">
@@ -12661,7 +12661,7 @@
     <row r="179">
       <c r="A179" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Santina Bertulessi</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B179" s="2448" t="inlineStr">
@@ -12671,24 +12671,24 @@
       </c>
       <c r="C179" s="2451" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t xml:space="preserve">Videoconference </t>
         </is>
       </c>
       <c r="D179" s="2451" t="inlineStr">
         <is>
-          <t>FONDAZIONE CASSA DI RISPARMIO DELLE PROVINCIE LOMBARDE</t>
+          <t>Bayerische Motoren Werke Aktiengesellschaft</t>
         </is>
       </c>
       <c r="E179" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Social Economy Action Plan and InvestEU</t>
+          <t xml:space="preserve">Preparatory meeting in view of a meeting with Ms Ilka Horstmeier, Member of the Board of Management of BMW AG, Human Resources, Labour Relations Director. </t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Santina Bertulessi</t>
         </is>
       </c>
       <c r="B180" s="2448" t="inlineStr">
@@ -12698,24 +12698,24 @@
       </c>
       <c r="C180" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference </t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D180" s="2451" t="inlineStr">
         <is>
-          <t>Bayerische Motoren Werke Aktiengesellschaft</t>
+          <t>FONDAZIONE CASSA DI RISPARMIO DELLE PROVINCIE LOMBARDE</t>
         </is>
       </c>
       <c r="E180" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Preparatory meeting in view of a meeting with Ms Ilka Horstmeier, Member of the Board of Management of BMW AG, Human Resources, Labour Relations Director. </t>
+          <t xml:space="preserve"> Social Economy Action Plan and InvestEU</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2451" t="inlineStr">
         <is>
-          <t>Santina Bertulessi, Anouk Faber</t>
+          <t>Anouk Faber, Santina Bertulessi</t>
         </is>
       </c>
       <c r="B181" s="2448" t="inlineStr">
@@ -12769,7 +12769,7 @@
     <row r="183">
       <c r="A183" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira, Anouk Faber</t>
+          <t>Anouk Faber, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B183" s="2448" t="inlineStr">
@@ -12958,7 +12958,7 @@
     <row r="190">
       <c r="A190" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B190" s="2448" t="inlineStr">
@@ -13012,7 +13012,7 @@
     <row r="192">
       <c r="A192" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Antoine Kasel</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B192" s="2448" t="inlineStr">
@@ -13027,12 +13027,12 @@
       </c>
       <c r="D192" s="2451" t="inlineStr">
         <is>
-          <t>Handwerkskammer Erfurt</t>
+          <t>Vereinigung der österreichischen Industrie - Industriellenvereinigung</t>
         </is>
       </c>
       <c r="E192" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Meeting with the Erfurt Chamber of Crafts on skills</t>
+          <t>The Pillar of Social rights (and an action plan), the minimum wage proposal and the initiative for social dialogue.</t>
         </is>
       </c>
     </row>
@@ -13066,7 +13066,7 @@
     <row r="194">
       <c r="A194" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Antoine Kasel</t>
         </is>
       </c>
       <c r="B194" s="2448" t="inlineStr">
@@ -13081,12 +13081,12 @@
       </c>
       <c r="D194" s="2451" t="inlineStr">
         <is>
-          <t>Vereinigung der österreichischen Industrie - Industriellenvereinigung</t>
+          <t>Handwerkskammer Erfurt</t>
         </is>
       </c>
       <c r="E194" s="2451" t="inlineStr">
         <is>
-          <t>The Pillar of Social rights (and an action plan), the minimum wage proposal and the initiative for social dialogue.</t>
+          <t xml:space="preserve"> Meeting with the Erfurt Chamber of Crafts on skills</t>
         </is>
       </c>
     </row>
@@ -13202,7 +13202,7 @@
     <row r="199">
       <c r="A199" s="2451" t="inlineStr">
         <is>
-          <t>Fabien Dell, Anouk Faber, Antoine Kasel</t>
+          <t>Antoine Kasel, Anouk Faber, Fabien Dell</t>
         </is>
       </c>
       <c r="B199" s="2448" t="inlineStr">
@@ -13229,7 +13229,7 @@
     <row r="200">
       <c r="A200" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B200" s="2448" t="inlineStr">
@@ -13391,62 +13391,62 @@
     <row r="206">
       <c r="A206" s="2451" t="inlineStr">
         <is>
+          <t>Anouk Faber</t>
+        </is>
+      </c>
+      <c r="B206" s="2448" t="inlineStr">
+        <is>
+          <t>21/09/2021</t>
+        </is>
+      </c>
+      <c r="C206" s="2451" t="inlineStr">
+        <is>
+          <t>online</t>
+        </is>
+      </c>
+      <c r="D206" s="2451" t="inlineStr">
+        <is>
+          <t>World Economic Forum</t>
+        </is>
+      </c>
+      <c r="E206" s="2451" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> World Economic Forum Sustainable Development Impact Summit</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2451" t="inlineStr">
+        <is>
           <t>Ana Carla  Pereira, Anouk Faber</t>
         </is>
       </c>
-      <c r="B206" s="2448" t="inlineStr">
+      <c r="B207" s="2448" t="inlineStr">
         <is>
           <t>21/09/2021</t>
         </is>
       </c>
-      <c r="C206" s="2451" t="inlineStr">
+      <c r="C207" s="2451" t="inlineStr">
         <is>
           <t>Brussels</t>
         </is>
       </c>
-      <c r="D206" s="2451" t="inlineStr">
+      <c r="D207" s="2451" t="inlineStr">
         <is>
           <t>UNIÓN GENERAL DE TRABAJADORES DE ESPAÑA, European Alternatives Limited, Unione Italiana del Lavoro, Fagligt Fælles Forbund</t>
         </is>
       </c>
-      <c r="E206" s="2451" t="inlineStr">
+      <c r="E207" s="2451" t="inlineStr">
         <is>
           <t xml:space="preserve">Consultation hearing with organisations of platform workers on the ‘Initiative on improving working conditions in platform work’.  
 </t>
         </is>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2451" t="inlineStr">
-        <is>
-          <t>Anouk Faber</t>
-        </is>
-      </c>
-      <c r="B207" s="2448" t="inlineStr">
-        <is>
-          <t>21/09/2021</t>
-        </is>
-      </c>
-      <c r="C207" s="2451" t="inlineStr">
-        <is>
-          <t>online</t>
-        </is>
-      </c>
-      <c r="D207" s="2451" t="inlineStr">
-        <is>
-          <t>World Economic Forum</t>
-        </is>
-      </c>
-      <c r="E207" s="2451" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> World Economic Forum Sustainable Development Impact Summit</t>
-        </is>
-      </c>
-    </row>
     <row r="208">
       <c r="A208" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber</t>
+          <t>Anouk Faber, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B208" s="2448" t="inlineStr">
@@ -13456,24 +13456,25 @@
       </c>
       <c r="C208" s="2451" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D208" s="2451" t="inlineStr">
         <is>
-          <t>Institute for Work &amp; Health</t>
+          <t>Bolt, Heetch, GlovoApp23, S.L., Uber, Wolt Enterprises, Delivery Hero SE, Deliveroo</t>
         </is>
       </c>
       <c r="E208" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> XXII World Congress on Safety and Health at Work</t>
+          <t>Consultation hearing with digital labour platforms on the Initiative on improving working conditions in platform work.   
+(to be completed)</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Ana Carla  Pereira</t>
+          <t>Anouk Faber</t>
         </is>
       </c>
       <c r="B209" s="2448" t="inlineStr">
@@ -13483,18 +13484,17 @@
       </c>
       <c r="C209" s="2451" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>online</t>
         </is>
       </c>
       <c r="D209" s="2451" t="inlineStr">
         <is>
-          <t>Bolt, Heetch, GlovoApp23, S.L., Uber, Wolt Enterprises, Delivery Hero SE, Deliveroo</t>
+          <t>Institute for Work &amp; Health</t>
         </is>
       </c>
       <c r="E209" s="2451" t="inlineStr">
         <is>
-          <t>Consultation hearing with digital labour platforms on the Initiative on improving working conditions in platform work.   
-(to be completed)</t>
+          <t xml:space="preserve"> XXII World Congress on Safety and Health at Work</t>
         </is>
       </c>
     </row>
@@ -13555,7 +13555,7 @@
     <row r="212">
       <c r="A212" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira, Andrea Nahles, Anouk Faber</t>
+          <t>Ana Carla  Pereira, Anouk Faber, Andrea Nahles</t>
         </is>
       </c>
       <c r="B212" s="2448" t="inlineStr">
@@ -13582,7 +13582,7 @@
     <row r="213">
       <c r="A213" s="2451" t="inlineStr">
         <is>
-          <t>Fabien Dell, Anouk Faber, Santina Bertulessi</t>
+          <t>Andrea Nahles</t>
         </is>
       </c>
       <c r="B213" s="2448" t="inlineStr">
@@ -13592,24 +13592,24 @@
       </c>
       <c r="C213" s="2451" t="inlineStr">
         <is>
-          <t>Virtual</t>
+          <t>Bonn, Germany</t>
         </is>
       </c>
       <c r="D213" s="2451" t="inlineStr">
         <is>
-          <t>Philanthropy Europe Association, Donors and Foundations Networks in Europe</t>
+          <t>Industriegewerkschaft Metall</t>
         </is>
       </c>
       <c r="E213" s="2451" t="inlineStr">
         <is>
-          <t>Barriers to philanthropy's cross border activity</t>
+          <t xml:space="preserve"> Social dialogue</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2451" t="inlineStr">
         <is>
-          <t>Andrea Nahles</t>
+          <t>Fabien Dell, Santina Bertulessi, Anouk Faber</t>
         </is>
       </c>
       <c r="B214" s="2448" t="inlineStr">
@@ -13619,17 +13619,17 @@
       </c>
       <c r="C214" s="2451" t="inlineStr">
         <is>
-          <t>Bonn, Germany</t>
+          <t>Virtual</t>
         </is>
       </c>
       <c r="D214" s="2451" t="inlineStr">
         <is>
-          <t>Industriegewerkschaft Metall</t>
+          <t>Philanthropy Europe Association, Donors and Foundations Networks in Europe</t>
         </is>
       </c>
       <c r="E214" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Social dialogue</t>
+          <t>Barriers to philanthropy's cross border activity</t>
         </is>
       </c>
     </row>
@@ -13717,7 +13717,7 @@
     <row r="218">
       <c r="A218" s="2451" t="inlineStr">
         <is>
-          <t>Santina Bertulessi</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B218" s="2448" t="inlineStr">
@@ -13727,24 +13727,24 @@
       </c>
       <c r="C218" s="2451" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Linz (AT)</t>
         </is>
       </c>
       <c r="D218" s="2451" t="inlineStr">
         <is>
-          <t>Bayerische Motoren Werke Aktiengesellschaft</t>
+          <t>SPAR Österreichische Warenhandels-AG</t>
         </is>
       </c>
       <c r="E218" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Right to disconnect </t>
+          <t>Project visit for the integration of long-term unemployed people.</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Santina Bertulessi</t>
         </is>
       </c>
       <c r="B219" s="2448" t="inlineStr">
@@ -13754,17 +13754,17 @@
       </c>
       <c r="C219" s="2451" t="inlineStr">
         <is>
-          <t>Linz (AT)</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D219" s="2451" t="inlineStr">
         <is>
-          <t>SPAR Österreichische Warenhandels-AG</t>
+          <t>EUROCADRES - THE COUNCIL OF EUROPEAN PROFESSIONAL AND MANAGERIAL STAFF</t>
         </is>
       </c>
       <c r="E219" s="2451" t="inlineStr">
         <is>
-          <t>Project visit for the integration of long-term unemployed people.</t>
+          <t xml:space="preserve"> Right to disconnect </t>
         </is>
       </c>
     </row>
@@ -13786,7 +13786,7 @@
       </c>
       <c r="D220" s="2451" t="inlineStr">
         <is>
-          <t>EUROCADRES - THE COUNCIL OF EUROPEAN PROFESSIONAL AND MANAGERIAL STAFF</t>
+          <t>Bayerische Motoren Werke Aktiengesellschaft</t>
         </is>
       </c>
       <c r="E220" s="2451" t="inlineStr">
@@ -13825,7 +13825,7 @@
     <row r="222">
       <c r="A222" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Ana Carla  Pereira</t>
+          <t>Santina Bertulessi, Ana Carla  Pereira, Anouk Faber</t>
         </is>
       </c>
       <c r="B222" s="2448" t="inlineStr">
@@ -13835,24 +13835,24 @@
       </c>
       <c r="C222" s="2451" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D222" s="2451" t="inlineStr">
         <is>
-          <t>The European Region of the International Lesbian, Gay, Bisexual, Trans and Intersex Association, European Federation of National Organisations working with the Homeless</t>
+          <t>Association Internationale de la Mutualité</t>
         </is>
       </c>
       <c r="E222" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Meeting on LGBTIQ homelessness.  </t>
+          <t xml:space="preserve"> Meeting on the Social Economy Action Plan and the future of welfare state.</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Ana Carla  Pereira, Santina Bertulessi</t>
+          <t>Anouk Faber, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B223" s="2448" t="inlineStr">
@@ -13862,17 +13862,17 @@
       </c>
       <c r="C223" s="2451" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D223" s="2451" t="inlineStr">
         <is>
-          <t>Association Internationale de la Mutualité</t>
+          <t>The European Region of the International Lesbian, Gay, Bisexual, Trans and Intersex Association, European Federation of National Organisations working with the Homeless</t>
         </is>
       </c>
       <c r="E223" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Meeting on the Social Economy Action Plan and the future of welfare state.</t>
+          <t xml:space="preserve"> Meeting on LGBTIQ homelessness.  </t>
         </is>
       </c>
     </row>
@@ -13987,7 +13987,7 @@
     <row r="228">
       <c r="A228" s="2451" t="inlineStr">
         <is>
-          <t>Fabien Dell, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Fabien Dell</t>
         </is>
       </c>
       <c r="B228" s="2448" t="inlineStr">
@@ -14014,7 +14014,7 @@
     <row r="229">
       <c r="A229" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel, Anouk Faber, Ana Carla  Pereira</t>
+          <t>Anouk Faber, Antoine Kasel, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B229" s="2448" t="inlineStr">
@@ -14041,7 +14041,7 @@
     <row r="230">
       <c r="A230" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Antoine Kasel, Ana Carla  Pereira</t>
+          <t>Antoine Kasel, Ana Carla  Pereira, Anouk Faber</t>
         </is>
       </c>
       <c r="B230" s="2448" t="inlineStr">
@@ -14068,7 +14068,7 @@
     <row r="231">
       <c r="A231" s="2451" t="inlineStr">
         <is>
-          <t>Fabien Dell, Ana Carla  Pereira</t>
+          <t>Ana Carla  Pereira, Fabien Dell</t>
         </is>
       </c>
       <c r="B231" s="2448" t="inlineStr">
@@ -14203,7 +14203,7 @@
     <row r="236">
       <c r="A236" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B236" s="2448" t="inlineStr">
@@ -14257,7 +14257,7 @@
     <row r="238">
       <c r="A238" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B238" s="2448" t="inlineStr">
@@ -14284,7 +14284,7 @@
     <row r="239">
       <c r="A239" s="2451" t="inlineStr">
         <is>
-          <t>Ivana McDowell, Anouk Faber, Antoine Kasel, Santina Bertulessi, Fabien Dell</t>
+          <t>Anouk Faber, Ivana McDowell, Fabien Dell, Antoine Kasel, Santina Bertulessi</t>
         </is>
       </c>
       <c r="B239" s="2448" t="inlineStr">
@@ -14311,7 +14311,7 @@
     <row r="240">
       <c r="A240" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B240" s="2448" t="inlineStr">
@@ -14365,7 +14365,7 @@
     <row r="242">
       <c r="A242" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel, Ana Carla  Pereira, Anouk Faber, Ivana McDowell</t>
+          <t>Ana Carla  Pereira, Ivana McDowell, Antoine Kasel, Anouk Faber</t>
         </is>
       </c>
       <c r="B242" s="2448" t="inlineStr">
@@ -14380,7 +14380,7 @@
       </c>
       <c r="D242" s="2451" t="inlineStr">
         <is>
-          <t>Bolt</t>
+          <t>Uber</t>
         </is>
       </c>
       <c r="E242" s="2451" t="inlineStr">
@@ -14392,7 +14392,7 @@
     <row r="243">
       <c r="A243" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel, Ana Carla  Pereira, Anouk Faber, Ivana McDowell</t>
+          <t>Ivana McDowell, Ana Carla  Pereira, Antoine Kasel, Anouk Faber</t>
         </is>
       </c>
       <c r="B243" s="2448" t="inlineStr">
@@ -14407,7 +14407,7 @@
       </c>
       <c r="D243" s="2451" t="inlineStr">
         <is>
-          <t>Uber</t>
+          <t>Bolt</t>
         </is>
       </c>
       <c r="E243" s="2451" t="inlineStr">
@@ -14527,7 +14527,7 @@
     <row r="248">
       <c r="A248" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B248" s="2448" t="inlineStr">
@@ -14554,7 +14554,7 @@
     <row r="249">
       <c r="A249" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira, Anouk Faber</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B249" s="2448" t="inlineStr">
@@ -14564,24 +14564,24 @@
       </c>
       <c r="C249" s="2451" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D249" s="2451" t="inlineStr">
         <is>
-          <t>IKEM - Innovations- och kemiindustrierna i Sverige AB (556865-4650), Bundesarbeitgeberverband Chemie e.V., European Chemical Employers Group</t>
+          <t>BUSINESSEUROPE</t>
         </is>
       </c>
       <c r="E249" s="2451" t="inlineStr">
         <is>
-          <t>EPSR, Directive on the adequate minimum wage, Reskilling and upskilling ahead of the Porto Social Summit</t>
+          <t xml:space="preserve">Meeting on the Individual Learning Accounts (ILA). </t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B250" s="2448" t="inlineStr">
@@ -14591,24 +14591,24 @@
       </c>
       <c r="C250" s="2451" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>online</t>
         </is>
       </c>
       <c r="D250" s="2451" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE</t>
+          <t>IKEM - Innovations- och kemiindustrierna i Sverige AB (556865-4650), Bundesarbeitgeberverband Chemie e.V., European Chemical Employers Group</t>
         </is>
       </c>
       <c r="E250" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meeting on the Individual Learning Accounts (ILA). </t>
+          <t>EPSR, Directive on the adequate minimum wage, Reskilling and upskilling ahead of the Porto Social Summit</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B251" s="2448" t="inlineStr">
@@ -14716,7 +14716,7 @@
     <row r="255">
       <c r="A255" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B255" s="2448" t="inlineStr">
@@ -14851,7 +14851,7 @@
     <row r="260">
       <c r="A260" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel, Anouk Faber</t>
+          <t>Santina Bertulessi</t>
         </is>
       </c>
       <c r="B260" s="2448" t="inlineStr">
@@ -14866,19 +14866,19 @@
       </c>
       <c r="D260" s="2451" t="inlineStr">
         <is>
-          <t>Association des Banques et Banquiers, Luxembourg, Association Luxembourgeoise des Fonds d'Investissement</t>
+          <t>Confédération générale des Scop</t>
         </is>
       </c>
       <c r="E260" s="2451" t="inlineStr">
         <is>
-          <t>Meeting on the funds and banking sector in Luxembourg, teleworking and the Right to Disconnect (R2D).</t>
+          <t>European Action Plan for the Social Economy</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2451" t="inlineStr">
         <is>
-          <t>Santina Bertulessi</t>
+          <t>Antoine Kasel, Anouk Faber</t>
         </is>
       </c>
       <c r="B261" s="2448" t="inlineStr">
@@ -14893,12 +14893,12 @@
       </c>
       <c r="D261" s="2451" t="inlineStr">
         <is>
-          <t>Confédération générale des Scop</t>
+          <t>Association des Banques et Banquiers, Luxembourg, Association Luxembourgeoise des Fonds d'Investissement</t>
         </is>
       </c>
       <c r="E261" s="2451" t="inlineStr">
         <is>
-          <t>European Action Plan for the Social Economy</t>
+          <t>Meeting on the funds and banking sector in Luxembourg, teleworking and the Right to Disconnect (R2D).</t>
         </is>
       </c>
     </row>
@@ -14959,7 +14959,7 @@
     <row r="264">
       <c r="A264" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira</t>
+          <t>Ana Carla  Pereira, Anouk Faber</t>
         </is>
       </c>
       <c r="B264" s="2448" t="inlineStr">
@@ -14969,24 +14969,24 @@
       </c>
       <c r="C264" s="2451" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D264" s="2451" t="inlineStr">
         <is>
-          <t>Confédération des Petites et Moyennes Entreprises</t>
+          <t>Českomoravská konfederace odborových svazů, The Central Organisation of Finnish Trade Unions SAK, Latvijas Brīvo arodbiedrību savienība, EUROPEAN TRADE UNION CONFEDERATION, European Federation of Food, Agriculture and Tourism Trade Unions, Irish Congress Trade Unions, Confederazione Generale Italiana del Lavoro, Deutscher Gewerkschaftsbund, European Trade Union Institute</t>
         </is>
       </c>
       <c r="E264" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proposal for a directive on adequate minimum wages in the EU</t>
+          <t xml:space="preserve"> Meeting on minimum wages.</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Ana Carla  Pereira</t>
+          <t>Santina Bertulessi</t>
         </is>
       </c>
       <c r="B265" s="2448" t="inlineStr">
@@ -15001,19 +15001,19 @@
       </c>
       <c r="D265" s="2451" t="inlineStr">
         <is>
-          <t>Českomoravská konfederace odborových svazů, The Central Organisation of Finnish Trade Unions SAK, Latvijas Brīvo arodbiedrību savienība, EUROPEAN TRADE UNION CONFEDERATION, European Federation of Food, Agriculture and Tourism Trade Unions, Irish Congress Trade Unions, Confederazione Generale Italiana del Lavoro, Deutscher Gewerkschaftsbund, European Trade Union Institute</t>
+          <t>European Federation for Family Employment - Fédération européenne des emplois de la famille</t>
         </is>
       </c>
       <c r="E265" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Meeting on minimum wages.</t>
+          <t xml:space="preserve"> European Pillar of Social Rights</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2451" t="inlineStr">
         <is>
-          <t>Santina Bertulessi</t>
+          <t>Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B266" s="2448" t="inlineStr">
@@ -15023,24 +15023,24 @@
       </c>
       <c r="C266" s="2451" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>online</t>
         </is>
       </c>
       <c r="D266" s="2451" t="inlineStr">
         <is>
-          <t>European Federation for Family Employment - Fédération européenne des emplois de la famille</t>
+          <t>Confédération des Petites et Moyennes Entreprises</t>
         </is>
       </c>
       <c r="E266" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> European Pillar of Social Rights</t>
+          <t xml:space="preserve"> Proposal for a directive on adequate minimum wages in the EU</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Santina Bertulessi</t>
+          <t>Santina Bertulessi, Anouk Faber</t>
         </is>
       </c>
       <c r="B267" s="2448" t="inlineStr">
@@ -15067,7 +15067,7 @@
     <row r="268">
       <c r="A268" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Anouk Faber</t>
         </is>
       </c>
       <c r="B268" s="2448" t="inlineStr">
@@ -15082,19 +15082,19 @@
       </c>
       <c r="D268" s="2451" t="inlineStr">
         <is>
-          <t>ZF Friedrichshafen AG, Robert Bosch GmbH, TotalEnergies SE, Mercedes-Benz Group AG, MAHLE International GmbH, Bayerische Motoren Werke Aktiengesellschaft</t>
+          <t>Institut d'études politiques de Paris (Sciences Po)</t>
         </is>
       </c>
       <c r="E268" s="2451" t="inlineStr">
         <is>
-          <t>Roundtable with transport value chain alliance - Transformation of the automotive value chain in the context of green recovery.</t>
+          <t>Intervention on social Europe in the Sciences Po course “European Seminar”.</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B269" s="2448" t="inlineStr">
@@ -15109,12 +15109,12 @@
       </c>
       <c r="D269" s="2451" t="inlineStr">
         <is>
-          <t>Institut d'études politiques de Paris (Sciences Po)</t>
+          <t>ZF Friedrichshafen AG, Robert Bosch GmbH, TotalEnergies SE, Mercedes-Benz Group AG, MAHLE International GmbH, Bayerische Motoren Werke Aktiengesellschaft</t>
         </is>
       </c>
       <c r="E269" s="2451" t="inlineStr">
         <is>
-          <t>Intervention on social Europe in the Sciences Po course “European Seminar”.</t>
+          <t>Roundtable with transport value chain alliance - Transformation of the automotive value chain in the context of green recovery.</t>
         </is>
       </c>
     </row>
@@ -15148,7 +15148,7 @@
     <row r="271">
       <c r="A271" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B271" s="2448" t="inlineStr">
@@ -15175,7 +15175,7 @@
     <row r="272">
       <c r="A272" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B272" s="2448" t="inlineStr">
@@ -15202,7 +15202,7 @@
     <row r="273">
       <c r="A273" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B273" s="2448" t="inlineStr">
@@ -15229,7 +15229,7 @@
     <row r="274">
       <c r="A274" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich</t>
         </is>
       </c>
       <c r="B274" s="2448" t="inlineStr">
@@ -15239,24 +15239,24 @@
       </c>
       <c r="C274" s="2451" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>online</t>
         </is>
       </c>
       <c r="D274" s="2451" t="inlineStr">
         <is>
-          <t>FoodDrinkEurope, Centre de liaison des industries transformatrices de viande de l'UE, Federación española de Industrias de Alimentación y Bebidas, European farmers, Federazione Italiana dell'Industria Alimentare, Conseil Européen des Jeunes Agriculteurs, Suedzucker AG, Nestlé S.A., Unilever, CEMA - European Agricultural Machinery Industry Association, Institut national de recherche pour l’agriculture, l’alimentation et l’environnement, COMITE EUROPEEN des FABRICANTS de SUCRE, AgriFood Lithuania DIH, European Federation of Food, Agriculture and Tourism Trade Unions</t>
+          <t>Confederazione Italiana Sindacati Lavoratori, EUROPEAN TRADE UNION CONFEDERATION</t>
         </is>
       </c>
       <c r="E274" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pact for Skills roundtable with the representatives of agri-food sector.   </t>
+          <t xml:space="preserve">Future EU Budget </t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B275" s="2448" t="inlineStr">
@@ -15266,17 +15266,17 @@
       </c>
       <c r="C275" s="2451" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D275" s="2451" t="inlineStr">
         <is>
-          <t>Confederazione Italiana Sindacati Lavoratori, EUROPEAN TRADE UNION CONFEDERATION</t>
+          <t>FoodDrinkEurope, Centre de liaison des industries transformatrices de viande de l'UE, Federación española de Industrias de Alimentación y Bebidas, European farmers, Federazione Italiana dell'Industria Alimentare, Conseil Européen des Jeunes Agriculteurs, Suedzucker AG, Nestlé S.A., Unilever, CEMA - European Agricultural Machinery Industry Association, Institut national de recherche pour l’agriculture, l’alimentation et l’environnement, COMITE EUROPEEN des FABRICANTS de SUCRE, AgriFood Lithuania DIH, European Federation of Food, Agriculture and Tourism Trade Unions</t>
         </is>
       </c>
       <c r="E275" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Future EU Budget </t>
+          <t xml:space="preserve">Pact for Skills roundtable with the representatives of agri-food sector.   </t>
         </is>
       </c>
     </row>
@@ -15391,7 +15391,7 @@
     <row r="280">
       <c r="A280" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber, Santina Bertulessi</t>
+          <t>Santina Bertulessi, Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B280" s="2448" t="inlineStr">
@@ -15418,7 +15418,7 @@
     <row r="281">
       <c r="A281" s="2451" t="inlineStr">
         <is>
-          <t>Jose Antonio Vieira Da Silva, Anouk Faber, Ana Carla  Pereira</t>
+          <t>Ana Carla  Pereira, Anouk Faber, Jose Antonio Vieira Da Silva</t>
         </is>
       </c>
       <c r="B281" s="2448" t="inlineStr">
@@ -15445,7 +15445,7 @@
     <row r="282">
       <c r="A282" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B282" s="2448" t="inlineStr">
@@ -15499,7 +15499,7 @@
     <row r="284">
       <c r="A284" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Santina Bertulessi, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich, Santina Bertulessi</t>
         </is>
       </c>
       <c r="B284" s="2448" t="inlineStr">
@@ -15580,7 +15580,7 @@
     <row r="287">
       <c r="A287" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Ana Carla  Pereira, Andrea Nahles, Antoine Kasel</t>
+          <t>Antoine Kasel, Anouk Faber, Andrea Nahles, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B287" s="2448" t="inlineStr">
@@ -15607,7 +15607,7 @@
     <row r="288">
       <c r="A288" s="2451" t="inlineStr">
         <is>
-          <t>Santina Bertulessi, Anouk Faber, Antoine Kasel, Ana Carla  Pereira</t>
+          <t>Antoine Kasel</t>
         </is>
       </c>
       <c r="B288" s="2448" t="inlineStr">
@@ -15617,24 +15617,24 @@
       </c>
       <c r="C288" s="2451" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D288" s="2451" t="inlineStr">
         <is>
-          <t>SGI Europe, BUSINESSEUROPE, SMEunited aisbl, EUROPEAN TRADE UNION CONFEDERATION</t>
+          <t>BUSINESSEUROPE</t>
         </is>
       </c>
       <c r="E288" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meeting on the Action Plan to implement the European Pillar of Social Rights. </t>
+          <t>Meeting on social initiatives</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel</t>
+          <t>Santina Bertulessi, Anouk Faber, Antoine Kasel, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B289" s="2448" t="inlineStr">
@@ -15644,17 +15644,17 @@
       </c>
       <c r="C289" s="2451" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D289" s="2451" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE</t>
+          <t>SGI Europe, BUSINESSEUROPE, SMEunited aisbl, EUROPEAN TRADE UNION CONFEDERATION</t>
         </is>
       </c>
       <c r="E289" s="2451" t="inlineStr">
         <is>
-          <t>Meeting on social initiatives</t>
+          <t xml:space="preserve">Meeting on the Action Plan to implement the European Pillar of Social Rights. </t>
         </is>
       </c>
     </row>
@@ -15688,7 +15688,7 @@
     <row r="291">
       <c r="A291" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira, Antoine Kasel, Anouk Faber, Jose Antonio Vieira Da Silva</t>
+          <t>Jose Antonio Vieira Da Silva, Ana Carla  Pereira, Antoine Kasel, Anouk Faber</t>
         </is>
       </c>
       <c r="B291" s="2448" t="inlineStr">
@@ -15769,7 +15769,7 @@
     <row r="294">
       <c r="A294" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel, Anouk Faber</t>
+          <t>Anouk Faber, Antoine Kasel</t>
         </is>
       </c>
       <c r="B294" s="2448" t="inlineStr">
@@ -15796,7 +15796,7 @@
     <row r="295">
       <c r="A295" s="2451" t="inlineStr">
         <is>
-          <t>Santina Bertulessi, Antoine Kasel, Anouk Faber</t>
+          <t>Anouk Faber, Santina Bertulessi, Antoine Kasel</t>
         </is>
       </c>
       <c r="B295" s="2448" t="inlineStr">
@@ -15823,7 +15823,7 @@
     <row r="296">
       <c r="A296" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B296" s="2448" t="inlineStr">
@@ -15850,7 +15850,7 @@
     <row r="297">
       <c r="A297" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Santina Bertulessi</t>
+          <t>Santina Bertulessi, Anouk Faber</t>
         </is>
       </c>
       <c r="B297" s="2448" t="inlineStr">
@@ -15904,7 +15904,7 @@
     <row r="299">
       <c r="A299" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B299" s="2448" t="inlineStr">
@@ -15958,7 +15958,7 @@
     <row r="301">
       <c r="A301" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Santina Bertulessi</t>
+          <t>Santina Bertulessi, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B301" s="2448" t="inlineStr">
@@ -15986,7 +15986,7 @@
     <row r="302">
       <c r="A302" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber</t>
+          <t>Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B302" s="2448" t="inlineStr">
@@ -15996,24 +15996,24 @@
       </c>
       <c r="C302" s="2451" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>online</t>
         </is>
       </c>
       <c r="D302" s="2451" t="inlineStr">
         <is>
-          <t>The European Region of the International Lesbian, Gay, Bisexual, Trans and Intersex Association</t>
+          <t>Fagbevægelsens Hovedorganisation, Fagligt Fælles Forbund</t>
         </is>
       </c>
       <c r="E302" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meeting on the socioeconomic inequalities faced by LGBTI people in Europe. </t>
+          <t xml:space="preserve">European Pillar of Social Rights </t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira</t>
+          <t>Anouk Faber</t>
         </is>
       </c>
       <c r="B303" s="2448" t="inlineStr">
@@ -16023,24 +16023,24 @@
       </c>
       <c r="C303" s="2451" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D303" s="2451" t="inlineStr">
         <is>
-          <t>Fagbevægelsens Hovedorganisation, Fagligt Fælles Forbund</t>
+          <t>The European Region of the International Lesbian, Gay, Bisexual, Trans and Intersex Association</t>
         </is>
       </c>
       <c r="E303" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">European Pillar of Social Rights </t>
+          <t xml:space="preserve">Meeting on the socioeconomic inequalities faced by LGBTI people in Europe. </t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira, Anouk Faber</t>
+          <t>Anouk Faber, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B304" s="2448" t="inlineStr">
@@ -16067,7 +16067,7 @@
     <row r="305">
       <c r="A305" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel, Anouk Faber, Fabien Dell</t>
+          <t>Fabien Dell, Anouk Faber, Antoine Kasel</t>
         </is>
       </c>
       <c r="B305" s="2448" t="inlineStr">
@@ -16148,7 +16148,7 @@
     <row r="308">
       <c r="A308" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber</t>
+          <t>Ana Carla  Pereira, Anouk Faber</t>
         </is>
       </c>
       <c r="B308" s="2448" t="inlineStr">
@@ -16158,17 +16158,17 @@
       </c>
       <c r="C308" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference </t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D308" s="2451" t="inlineStr">
         <is>
-          <t>European Federation of Food, Agriculture and Tourism Trade Unions</t>
+          <t>BUSINESSEUROPE, SMEunited aisbl, Central Europe Energy Partners, EUROPEAN TRADE UNION CONFEDERATION, Deutscher Gewerkschaftsbund, Bundesvereinigung der Deutschen Arbeitgeberverbände e.V.</t>
         </is>
       </c>
       <c r="E308" s="2451" t="inlineStr">
         <is>
-          <t>Meeting on the labour standards in the meat sector and other concerns in the food and agriculture sectors.</t>
+          <t xml:space="preserve">Exchange of views on minimum wages and the Recovery and Resilience Facility. </t>
         </is>
       </c>
     </row>
@@ -16202,7 +16202,7 @@
     <row r="310">
       <c r="A310" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira, Anouk Faber</t>
+          <t>Anouk Faber</t>
         </is>
       </c>
       <c r="B310" s="2448" t="inlineStr">
@@ -16212,24 +16212,24 @@
       </c>
       <c r="C310" s="2451" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t xml:space="preserve">Videoconference </t>
         </is>
       </c>
       <c r="D310" s="2451" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE, SMEunited aisbl, Central Europe Energy Partners, EUROPEAN TRADE UNION CONFEDERATION, Deutscher Gewerkschaftsbund, Bundesvereinigung der Deutschen Arbeitgeberverbände e.V.</t>
+          <t>European Federation of Food, Agriculture and Tourism Trade Unions</t>
         </is>
       </c>
       <c r="E310" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Exchange of views on minimum wages and the Recovery and Resilience Facility. </t>
+          <t>Meeting on the labour standards in the meat sector and other concerns in the food and agriculture sectors.</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Andrea Nahles</t>
         </is>
       </c>
       <c r="B311" s="2448" t="inlineStr">
@@ -16239,24 +16239,24 @@
       </c>
       <c r="C311" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference </t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D311" s="2451" t="inlineStr">
         <is>
-          <t>Polska Izba Budownictwa, EUROPEAN FEDERATION OF BUILDING AND WOODWORKERS, European Association of Electrical Contractors, European Construction Industry Federation, EUREC- The association of European Renewable Energy Research Centres, Knauf Energy Solutions, Universidade do Porto, European Builders Confederation AISBL</t>
+          <t>Council of European Employers of the Metal, Engineering and Technology-based Industries</t>
         </is>
       </c>
       <c r="E311" s="2451" t="inlineStr">
         <is>
-          <t>Pact for Skills roundtable with the construction sector.</t>
+          <t xml:space="preserve"> Social Dialogue</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B312" s="2448" t="inlineStr">
@@ -16271,19 +16271,19 @@
       </c>
       <c r="D312" s="2451" t="inlineStr">
         <is>
-          <t>European Federation of Nurses Associations</t>
+          <t>Polska Izba Budownictwa, EUROPEAN FEDERATION OF BUILDING AND WOODWORKERS, European Association of Electrical Contractors, European Construction Industry Federation, EUREC- The association of European Renewable Energy Research Centres, Knauf Energy Solutions, Universidade do Porto, European Builders Confederation AISBL</t>
         </is>
       </c>
       <c r="E312" s="2451" t="inlineStr">
         <is>
-          <t>Meeting on the challenges faced by frontline workers during the Covid-19 crisis.</t>
+          <t>Pact for Skills roundtable with the construction sector.</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2451" t="inlineStr">
         <is>
-          <t>Andrea Nahles</t>
+          <t>Anouk Faber</t>
         </is>
       </c>
       <c r="B313" s="2448" t="inlineStr">
@@ -16293,17 +16293,17 @@
       </c>
       <c r="C313" s="2451" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t xml:space="preserve">Videoconference </t>
         </is>
       </c>
       <c r="D313" s="2451" t="inlineStr">
         <is>
-          <t>Council of European Employers of the Metal, Engineering and Technology-based Industries</t>
+          <t>European Federation of Nurses Associations</t>
         </is>
       </c>
       <c r="E313" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Social Dialogue</t>
+          <t>Meeting on the challenges faced by frontline workers during the Covid-19 crisis.</t>
         </is>
       </c>
     </row>
@@ -16391,7 +16391,7 @@
     <row r="317">
       <c r="A317" s="2451" t="inlineStr">
         <is>
-          <t>Eugenia Dumitriu-Segnana, Anouk Faber</t>
+          <t>Anouk Faber, Eugenia Dumitriu-Segnana</t>
         </is>
       </c>
       <c r="B317" s="2448" t="inlineStr">
@@ -16445,7 +16445,7 @@
     <row r="319">
       <c r="A319" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel, Ana Carla  Pereira, Anouk Faber</t>
+          <t>Ana Carla  Pereira, Anouk Faber, Antoine Kasel</t>
         </is>
       </c>
       <c r="B319" s="2448" t="inlineStr">
@@ -16634,7 +16634,7 @@
     <row r="326">
       <c r="A326" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel, Anouk Faber</t>
+          <t>Anouk Faber, Antoine Kasel</t>
         </is>
       </c>
       <c r="B326" s="2448" t="inlineStr">
@@ -16661,7 +16661,7 @@
     <row r="327">
       <c r="A327" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Ana Carla  Pereira, Antoine Kasel</t>
+          <t>Antoine Kasel, Anouk Faber, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B327" s="2448" t="inlineStr">
@@ -16797,7 +16797,7 @@
     <row r="332">
       <c r="A332" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B332" s="2448" t="inlineStr">
@@ -16905,7 +16905,7 @@
     <row r="336">
       <c r="A336" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B336" s="2448" t="inlineStr">
@@ -17013,7 +17013,7 @@
     <row r="340">
       <c r="A340" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel, Fabien Dell, Anouk Faber</t>
+          <t>Fabien Dell, Anouk Faber, Antoine Kasel</t>
         </is>
       </c>
       <c r="B340" s="2448" t="inlineStr">
@@ -17040,7 +17040,7 @@
     <row r="341">
       <c r="A341" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Antoine Kasel, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Antoine Kasel, Anouk Faber</t>
         </is>
       </c>
       <c r="B341" s="2448" t="inlineStr">
@@ -17284,7 +17284,7 @@
     <row r="350">
       <c r="A350" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B350" s="2448" t="inlineStr">
@@ -17419,7 +17419,7 @@
     <row r="355">
       <c r="A355" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B355" s="2448" t="inlineStr">
@@ -17527,7 +17527,7 @@
     <row r="359">
       <c r="A359" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B359" s="2448" t="inlineStr">
@@ -17623,12 +17623,12 @@
       </c>
       <c r="D362" s="2451" t="inlineStr">
         <is>
-          <t>Chambre des salariés, Lëtzebuerger Chrëschtleche Gewerkschafts-Bond</t>
+          <t>SES S.A.</t>
         </is>
       </c>
       <c r="E362" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entrevue sur investissements dans les compétences et la transition numérique pour accélérer la reprise, les stratégies numériques et industrielles, les PME. </t>
+          <t xml:space="preserve">Presentation of the SES activities. </t>
         </is>
       </c>
     </row>
@@ -17650,12 +17650,12 @@
       </c>
       <c r="D363" s="2451" t="inlineStr">
         <is>
-          <t>SES S.A.</t>
+          <t>Chambre des Métiers du Grand-Duché du Luxembourg, FEDIL - The Voice of Luxembourg's Industry, Association des Banques et Banquiers, Luxembourg, Union des Entreprises Luxembourgeoises, Association Luxembourgeoise des Fonds d'Investissement</t>
         </is>
       </c>
       <c r="E363" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Presentation of the SES activities. </t>
+          <t>Entrevue sur les investissements dans les compétences et la transition numérique pour accélérer la reprise, les stratégies numériques et industrielles, les PME.</t>
         </is>
       </c>
     </row>
@@ -17677,12 +17677,12 @@
       </c>
       <c r="D364" s="2451" t="inlineStr">
         <is>
-          <t>Chambre des Métiers du Grand-Duché du Luxembourg, FEDIL - The Voice of Luxembourg's Industry, Association des Banques et Banquiers, Luxembourg, Union des Entreprises Luxembourgeoises, Association Luxembourgeoise des Fonds d'Investissement</t>
+          <t>Chambre des salariés, Lëtzebuerger Chrëschtleche Gewerkschafts-Bond</t>
         </is>
       </c>
       <c r="E364" s="2451" t="inlineStr">
         <is>
-          <t>Entrevue sur les investissements dans les compétences et la transition numérique pour accélérer la reprise, les stratégies numériques et industrielles, les PME.</t>
+          <t xml:space="preserve">Entrevue sur investissements dans les compétences et la transition numérique pour accélérer la reprise, les stratégies numériques et industrielles, les PME. </t>
         </is>
       </c>
     </row>
@@ -17743,7 +17743,7 @@
     <row r="367">
       <c r="A367" s="2451" t="inlineStr">
         <is>
-          <t>Eugenia Dumitriu-Segnana, Ana Carla  Pereira, Anouk Faber</t>
+          <t>Eugenia Dumitriu-Segnana, Anouk Faber, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B367" s="2448" t="inlineStr">
@@ -17824,7 +17824,7 @@
     <row r="370">
       <c r="A370" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Ana Carla  Pereira</t>
+          <t>Ana Carla  Pereira, Eugenia Dumitriu-Segnana, Anouk Faber</t>
         </is>
       </c>
       <c r="B370" s="2448" t="inlineStr">
@@ -17834,24 +17834,24 @@
       </c>
       <c r="C370" s="2451" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t xml:space="preserve">Videoconference </t>
         </is>
       </c>
       <c r="D370" s="2451" t="inlineStr">
         <is>
-          <t>EUROPEAN TRADE UNION CONFEDERATION, AFL-CIO</t>
+          <t>AFL-CIO, EUROPEAN TRADE UNION CONFEDERATION</t>
         </is>
       </c>
       <c r="E370" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meeting on labour and social issues in EU/US. </t>
+          <t>Meeting with the European Trade Union Confederation (ETUC) and the US Trade Union Confederation (AFL-CIO) to discuss the EU/US relationships on labour and social issues.</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2451" t="inlineStr">
         <is>
-          <t>Eugenia Dumitriu-Segnana, Ana Carla  Pereira, Anouk Faber</t>
+          <t>Ana Carla  Pereira, Anouk Faber</t>
         </is>
       </c>
       <c r="B371" s="2448" t="inlineStr">
@@ -17861,17 +17861,17 @@
       </c>
       <c r="C371" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference </t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D371" s="2451" t="inlineStr">
         <is>
-          <t>AFL-CIO, EUROPEAN TRADE UNION CONFEDERATION</t>
+          <t>EUROPEAN TRADE UNION CONFEDERATION, AFL-CIO</t>
         </is>
       </c>
       <c r="E371" s="2451" t="inlineStr">
         <is>
-          <t>Meeting with the European Trade Union Confederation (ETUC) and the US Trade Union Confederation (AFL-CIO) to discuss the EU/US relationships on labour and social issues.</t>
+          <t xml:space="preserve">Meeting on labour and social issues in EU/US. </t>
         </is>
       </c>
     </row>
@@ -17888,24 +17888,24 @@
       </c>
       <c r="C372" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference </t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D372" s="2451" t="inlineStr">
         <is>
-          <t>European Forum of technical and Vocational Education and Training, European Association of Regional and Local Authorities for Lifelong Learning</t>
+          <t>SMEunited aisbl</t>
         </is>
       </c>
       <c r="E372" s="2451" t="inlineStr">
         <is>
-          <t>Meeting on green skills.</t>
+          <t xml:space="preserve">Meeting on Vocational Education and Training as well as apprenticeships. </t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B373" s="2448" t="inlineStr">
@@ -17915,17 +17915,17 @@
       </c>
       <c r="C373" s="2451" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t xml:space="preserve">Videoconference </t>
         </is>
       </c>
       <c r="D373" s="2451" t="inlineStr">
         <is>
-          <t>SMEunited aisbl</t>
+          <t>European Forum of technical and Vocational Education and Training, European Association of Regional and Local Authorities for Lifelong Learning</t>
         </is>
       </c>
       <c r="E373" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meeting on Vocational Education and Training as well as apprenticeships. </t>
+          <t>Meeting on green skills.</t>
         </is>
       </c>
     </row>
@@ -17959,7 +17959,7 @@
     <row r="375">
       <c r="A375" s="2451" t="inlineStr">
         <is>
-          <t>Santina Bertulessi, Anouk Faber</t>
+          <t>Anouk Faber, Santina Bertulessi</t>
         </is>
       </c>
       <c r="B375" s="2448" t="inlineStr">
@@ -17986,7 +17986,7 @@
     <row r="376">
       <c r="A376" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B376" s="2448" t="inlineStr">
@@ -17996,24 +17996,24 @@
       </c>
       <c r="C376" s="2451" t="inlineStr">
         <is>
-          <t>VC</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D376" s="2451" t="inlineStr">
         <is>
-          <t>industriAll European Trade Union, European Federation of Public Service Unions, EUROPEAN FEDERATION OF BUILDING AND WOODWORKERS, EUROPEAN TRADE UNION CONFEDERATION, European Federation of Food, Agriculture and Tourism Trade Unions</t>
+          <t>European DIGITAL SME Alliance</t>
         </is>
       </c>
       <c r="E376" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> European trade unions’ call for swift action on worker involvement rights</t>
+          <t>Meeting on the recovery strategy and the sustainable digitalisation of SMEs.</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B377" s="2448" t="inlineStr">
@@ -18023,24 +18023,24 @@
       </c>
       <c r="C377" s="2451" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>VC</t>
         </is>
       </c>
       <c r="D377" s="2451" t="inlineStr">
         <is>
-          <t>European DIGITAL SME Alliance</t>
+          <t>industriAll European Trade Union, European Federation of Public Service Unions, EUROPEAN FEDERATION OF BUILDING AND WOODWORKERS, EUROPEAN TRADE UNION CONFEDERATION, European Federation of Food, Agriculture and Tourism Trade Unions</t>
         </is>
       </c>
       <c r="E377" s="2451" t="inlineStr">
         <is>
-          <t>Meeting on the recovery strategy and the sustainable digitalisation of SMEs.</t>
+          <t xml:space="preserve"> European trade unions’ call for swift action on worker involvement rights</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B378" s="2448" t="inlineStr">
@@ -18055,19 +18055,19 @@
       </c>
       <c r="D378" s="2451" t="inlineStr">
         <is>
-          <t>Eurocities</t>
+          <t>Nestlé S.A.</t>
         </is>
       </c>
       <c r="E378" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference on the effect of the crisis on the most vulnerables, the important role of cities in the crisis and the recovery.   </t>
+          <t xml:space="preserve">Videoconference on the effect of the crisis on employment, especially youth employment, apprenticeships and skills.  </t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B379" s="2448" t="inlineStr">
@@ -18082,19 +18082,19 @@
       </c>
       <c r="D379" s="2451" t="inlineStr">
         <is>
-          <t>Nestlé S.A.</t>
+          <t>Eurocities</t>
         </is>
       </c>
       <c r="E379" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference on the effect of the crisis on employment, especially youth employment, apprenticeships and skills.  </t>
+          <t xml:space="preserve">Videoconference on the effect of the crisis on the most vulnerables, the important role of cities in the crisis and the recovery.   </t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira, Antoine Kasel, Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich, Ana Carla  Pereira, Antoine Kasel</t>
         </is>
       </c>
       <c r="B380" s="2448" t="inlineStr">
@@ -18148,7 +18148,7 @@
     <row r="382">
       <c r="A382" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B382" s="2448" t="inlineStr">
@@ -18175,7 +18175,7 @@
     <row r="383">
       <c r="A383" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel, Anouk Faber, Christoph Nerlich</t>
+          <t>Anouk Faber, Christoph Nerlich, Antoine Kasel</t>
         </is>
       </c>
       <c r="B383" s="2448" t="inlineStr">
@@ -18202,7 +18202,7 @@
     <row r="384">
       <c r="A384" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Anouk Faber</t>
         </is>
       </c>
       <c r="B384" s="2448" t="inlineStr">
@@ -18217,19 +18217,19 @@
       </c>
       <c r="D384" s="2451" t="inlineStr">
         <is>
-          <t>EUROCHAMBRES – Association of European Chambers of Commerce and Industry</t>
+          <t>European Forum of technical and Vocational Education and Training, Europäischer Verband Beruflicher Bildungsträger, European Providers of Vocational Education and Training, European Association of Institutions in Higher Education, European University Continuing Education Network, Association Européenne pour la Formation Professionnelle / European Vocational Training Association</t>
         </is>
       </c>
       <c r="E384" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference on skills, Vocational Education and Training (VET) and SURE.  </t>
+          <t xml:space="preserve">Videoconference on Vocational Education and Training (VET) and the impact of the crisis on VET. </t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B385" s="2448" t="inlineStr">
@@ -18244,19 +18244,19 @@
       </c>
       <c r="D385" s="2451" t="inlineStr">
         <is>
-          <t>European Forum of technical and Vocational Education and Training, Europäischer Verband Beruflicher Bildungsträger, European Providers of Vocational Education and Training, European Association of Institutions in Higher Education, European University Continuing Education Network, Association Européenne pour la Formation Professionnelle / European Vocational Training Association</t>
+          <t>EUROCHAMBRES – Association of European Chambers of Commerce and Industry</t>
         </is>
       </c>
       <c r="E385" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference on Vocational Education and Training (VET) and the impact of the crisis on VET. </t>
+          <t xml:space="preserve">Videoconference on skills, Vocational Education and Training (VET) and SURE.  </t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Ana Carla  Pereira</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B386" s="2448" t="inlineStr">
@@ -18266,17 +18266,17 @@
       </c>
       <c r="C386" s="2451" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t xml:space="preserve">Videoconference </t>
         </is>
       </c>
       <c r="D386" s="2451" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE, SMEunited aisbl, SGI Europe, EUROPEAN TRADE UNION CONFEDERATION</t>
+          <t>The Adecco Group</t>
         </is>
       </c>
       <c r="E386" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">High-level hearing with Executive Vice-President Dombrovskis and the Social Partners on the Action plan to implement the European Pillar of Social Rights.  </t>
+          <t xml:space="preserve">Videoconference on the effect of the crisis on employment and the importance of skills.  </t>
         </is>
       </c>
     </row>
@@ -18310,7 +18310,7 @@
     <row r="388">
       <c r="A388" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Ana Carla  Pereira, Anouk Faber</t>
         </is>
       </c>
       <c r="B388" s="2448" t="inlineStr">
@@ -18320,24 +18320,24 @@
       </c>
       <c r="C388" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference </t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D388" s="2451" t="inlineStr">
         <is>
-          <t>The Adecco Group</t>
+          <t>BUSINESSEUROPE, SMEunited aisbl, SGI Europe, EUROPEAN TRADE UNION CONFEDERATION</t>
         </is>
       </c>
       <c r="E388" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference on the effect of the crisis on employment and the importance of skills.  </t>
+          <t xml:space="preserve">High-level hearing with Executive Vice-President Dombrovskis and the Social Partners on the Action plan to implement the European Pillar of Social Rights.  </t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2451" t="inlineStr">
         <is>
-          <t>Santina Bertulessi, Anouk Faber, Antoine Kasel, Ana Carla  Pereira</t>
+          <t>Santina Bertulessi</t>
         </is>
       </c>
       <c r="B389" s="2448" t="inlineStr">
@@ -18347,24 +18347,24 @@
       </c>
       <c r="C389" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference </t>
+          <t xml:space="preserve">VC </t>
         </is>
       </c>
       <c r="D389" s="2451" t="inlineStr">
         <is>
-          <t>industriAll European Trade Union</t>
+          <t>Eurochild AISBL</t>
         </is>
       </c>
       <c r="E389" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference on the closure of Nissan plant in Barcelona. </t>
+          <t>Child Poverty</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2451" t="inlineStr">
         <is>
-          <t>Santina Bertulessi</t>
+          <t>Antoine Kasel, Ana Carla  Pereira, Anouk Faber, Santina Bertulessi</t>
         </is>
       </c>
       <c r="B390" s="2448" t="inlineStr">
@@ -18374,17 +18374,17 @@
       </c>
       <c r="C390" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">VC </t>
+          <t xml:space="preserve">Videoconference </t>
         </is>
       </c>
       <c r="D390" s="2451" t="inlineStr">
         <is>
-          <t>Eurochild AISBL</t>
+          <t>industriAll European Trade Union</t>
         </is>
       </c>
       <c r="E390" s="2451" t="inlineStr">
         <is>
-          <t>Child Poverty</t>
+          <t xml:space="preserve">Videoconference on the closure of Nissan plant in Barcelona. </t>
         </is>
       </c>
     </row>
@@ -18418,7 +18418,7 @@
     <row r="392">
       <c r="A392" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Eugenia Dumitriu-Segnana, Antoine Kasel, Fabien Dell, Anouk Faber</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B392" s="2448" t="inlineStr">
@@ -18433,19 +18433,19 @@
       </c>
       <c r="D392" s="2451" t="inlineStr">
         <is>
-          <t>Airbus</t>
+          <t>General Aviation Manufacturers Association</t>
         </is>
       </c>
       <c r="E392" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference on the effects of the crisis on the aviation sector and skills. </t>
+          <t xml:space="preserve"> Videoconference on skills  </t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Antoine Kasel, Eugenia Dumitriu-Segnana, Christoph Nerlich, Anouk Faber, Fabien Dell</t>
         </is>
       </c>
       <c r="B393" s="2448" t="inlineStr">
@@ -18460,12 +18460,12 @@
       </c>
       <c r="D393" s="2451" t="inlineStr">
         <is>
-          <t>American Chamber of Commerce to the European Union</t>
+          <t>Airbus</t>
         </is>
       </c>
       <c r="E393" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference on future of work and skills  </t>
+          <t xml:space="preserve">Videoconference on the effects of the crisis on the aviation sector and skills. </t>
         </is>
       </c>
     </row>
@@ -18487,19 +18487,19 @@
       </c>
       <c r="D394" s="2451" t="inlineStr">
         <is>
-          <t>General Aviation Manufacturers Association</t>
+          <t>American Chamber of Commerce to the European Union</t>
         </is>
       </c>
       <c r="E394" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Videoconference on skills  </t>
+          <t xml:space="preserve">Videoconference on future of work and skills  </t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel, Anouk Faber, Christoph Nerlich</t>
+          <t>Anouk Faber, Christoph Nerlich, Antoine Kasel</t>
         </is>
       </c>
       <c r="B395" s="2448" t="inlineStr">
@@ -18526,7 +18526,7 @@
     <row r="396">
       <c r="A396" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B396" s="2448" t="inlineStr">
@@ -18553,7 +18553,7 @@
     <row r="397">
       <c r="A397" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Antoine Kasel</t>
+          <t>Antoine Kasel, Anouk Faber</t>
         </is>
       </c>
       <c r="B397" s="2448" t="inlineStr">
@@ -18607,58 +18607,58 @@
     <row r="399">
       <c r="A399" s="2451" t="inlineStr">
         <is>
+          <t>Christoph Nerlich, Santina Bertulessi, Anouk Faber, Antoine Kasel</t>
+        </is>
+      </c>
+      <c r="B399" s="2448" t="inlineStr">
+        <is>
+          <t>15/05/2020</t>
+        </is>
+      </c>
+      <c r="C399" s="2451" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Videoconference </t>
+        </is>
+      </c>
+      <c r="D399" s="2451" t="inlineStr">
+        <is>
+          <t>Volkswagen Aktiengesellschaft</t>
+        </is>
+      </c>
+      <c r="E399" s="2451" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Videoconference on recovery and skills.  </t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2451" t="inlineStr">
+        <is>
           <t>Anouk Faber</t>
         </is>
       </c>
-      <c r="B399" s="2448" t="inlineStr">
+      <c r="B400" s="2448" t="inlineStr">
         <is>
           <t>15/05/2020</t>
         </is>
       </c>
-      <c r="C399" s="2451" t="inlineStr">
+      <c r="C400" s="2451" t="inlineStr">
         <is>
           <t xml:space="preserve">Videoconference </t>
         </is>
       </c>
-      <c r="D399" s="2451" t="inlineStr">
+      <c r="D400" s="2451" t="inlineStr">
         <is>
           <t>The Institute of International and European Affairs, Brussels</t>
         </is>
       </c>
-      <c r="E399" s="2451" t="inlineStr">
+      <c r="E400" s="2451" t="inlineStr">
         <is>
           <t xml:space="preserve">IIEA online conference "The EU's social agenda, in particular in light of the COVID-19 pandemic and the EU's post-crisis
 recovery". </t>
         </is>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" s="2451" t="inlineStr">
-        <is>
-          <t>Antoine Kasel, Santina Bertulessi, Anouk Faber, Christoph Nerlich</t>
-        </is>
-      </c>
-      <c r="B400" s="2448" t="inlineStr">
-        <is>
-          <t>15/05/2020</t>
-        </is>
-      </c>
-      <c r="C400" s="2451" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Videoconference </t>
-        </is>
-      </c>
-      <c r="D400" s="2451" t="inlineStr">
-        <is>
-          <t>Volkswagen Aktiengesellschaft</t>
-        </is>
-      </c>
-      <c r="E400" s="2451" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Videoconference on recovery and skills.  </t>
-        </is>
-      </c>
-    </row>
     <row r="401">
       <c r="A401" s="2451" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
     <row r="403">
       <c r="A403" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Antoine Kasel, Ana Carla  Pereira</t>
+          <t>Anouk Faber, Ana Carla  Pereira, Antoine Kasel</t>
         </is>
       </c>
       <c r="B403" s="2448" t="inlineStr">
@@ -18770,7 +18770,7 @@
     <row r="405">
       <c r="A405" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel, Ana Carla  Pereira</t>
+          <t>Ana Carla  Pereira, Antoine Kasel</t>
         </is>
       </c>
       <c r="B405" s="2448" t="inlineStr">
@@ -18824,7 +18824,7 @@
     <row r="407">
       <c r="A407" s="2451" t="inlineStr">
         <is>
-          <t>Eugenia Dumitriu-Segnana, Antoine Kasel, Anouk Faber</t>
+          <t>Eugenia Dumitriu-Segnana, Anouk Faber, Antoine Kasel</t>
         </is>
       </c>
       <c r="B407" s="2448" t="inlineStr">
@@ -18878,7 +18878,7 @@
     <row r="409">
       <c r="A409" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel, Anouk Faber, Santina Bertulessi</t>
+          <t>Santina Bertulessi, Anouk Faber, Antoine Kasel</t>
         </is>
       </c>
       <c r="B409" s="2448" t="inlineStr">
@@ -18932,7 +18932,7 @@
     <row r="411">
       <c r="A411" s="2451" t="inlineStr">
         <is>
-          <t>Santina Bertulessi, Anouk Faber</t>
+          <t>Anouk Faber</t>
         </is>
       </c>
       <c r="B411" s="2448" t="inlineStr">
@@ -18947,19 +18947,19 @@
       </c>
       <c r="D411" s="2451" t="inlineStr">
         <is>
-          <t>Volkswagen Aktiengesellschaft</t>
+          <t>Platform of European Social NGOs</t>
         </is>
       </c>
       <c r="E411" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference to prepare the VW meeting on recovery and skills.    </t>
+          <t xml:space="preserve">Videoconference for Social Platform to present the outcome of their General Assembly, their mission and vision, discussion about the revision of the Commission Working Programme, dialogue between the Commission and civil society organisations. </t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber</t>
+          <t>Anouk Faber, Santina Bertulessi</t>
         </is>
       </c>
       <c r="B412" s="2448" t="inlineStr">
@@ -18974,12 +18974,12 @@
       </c>
       <c r="D412" s="2451" t="inlineStr">
         <is>
-          <t>Platform of European Social NGOs</t>
+          <t>Volkswagen Aktiengesellschaft</t>
         </is>
       </c>
       <c r="E412" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference for Social Platform to present the outcome of their General Assembly, their mission and vision, discussion about the revision of the Commission Working Programme, dialogue between the Commission and civil society organisations. </t>
+          <t xml:space="preserve">Videoconference to prepare the VW meeting on recovery and skills.    </t>
         </is>
       </c>
     </row>
@@ -19013,7 +19013,7 @@
     <row r="414">
       <c r="A414" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira</t>
+          <t>Ana Carla  Pereira, Anouk Faber</t>
         </is>
       </c>
       <c r="B414" s="2448" t="inlineStr">
@@ -19023,24 +19023,24 @@
       </c>
       <c r="C414" s="2451" t="inlineStr">
         <is>
-          <t>Video conference (skype)</t>
+          <t xml:space="preserve">Videoconference </t>
         </is>
       </c>
       <c r="D414" s="2451" t="inlineStr">
         <is>
-          <t>AGE Platform Europe</t>
+          <t>European Federation of National Organisations working with the Homeless, European Federation of Public Service Unions, European Disability Forum, AGE Platform Europe, European Social Network AISBL, SGI Europe, European Association of Service providers for Persons with Disabilities, European Ageing Network</t>
         </is>
       </c>
       <c r="E414" s="2451" t="inlineStr">
         <is>
-          <t>long-term care (LTC) and how LTC systems are affected by the current COVID crisis</t>
+          <t xml:space="preserve">Videoconference meeting on social support care service and COVID-19 </t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Ana Carla  Pereira</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B415" s="2448" t="inlineStr">
@@ -19055,19 +19055,19 @@
       </c>
       <c r="D415" s="2451" t="inlineStr">
         <is>
-          <t>European Federation of National Organisations working with the Homeless, European Federation of Public Service Unions, European Disability Forum, AGE Platform Europe, European Social Network AISBL, SGI Europe, European Association of Service providers for Persons with Disabilities, European Ageing Network</t>
+          <t>Organising Bureau of European School Student Unions</t>
         </is>
       </c>
       <c r="E415" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference meeting on social support care service and COVID-19 </t>
+          <t xml:space="preserve">Videoconference meeting on the impact of Covid-19 on learners, especially on VET learners. </t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B416" s="2448" t="inlineStr">
@@ -19077,17 +19077,17 @@
       </c>
       <c r="C416" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference </t>
+          <t>Video conference (skype)</t>
         </is>
       </c>
       <c r="D416" s="2451" t="inlineStr">
         <is>
-          <t>Organising Bureau of European School Student Unions</t>
+          <t>AGE Platform Europe</t>
         </is>
       </c>
       <c r="E416" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference meeting on the impact of Covid-19 on learners, especially on VET learners. </t>
+          <t>long-term care (LTC) and how LTC systems are affected by the current COVID crisis</t>
         </is>
       </c>
     </row>
@@ -19121,7 +19121,7 @@
     <row r="418">
       <c r="A418" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel, Ana Carla  Pereira, Anouk Faber</t>
+          <t>Anouk Faber, Antoine Kasel, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B418" s="2448" t="inlineStr">
@@ -19202,7 +19202,7 @@
     <row r="421">
       <c r="A421" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B421" s="2448" t="inlineStr">
@@ -19229,7 +19229,7 @@
     <row r="422">
       <c r="A422" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira, Eugenia Dumitriu-Segnana</t>
+          <t>Eugenia Dumitriu-Segnana, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B422" s="2448" t="inlineStr">
@@ -19256,7 +19256,7 @@
     <row r="423">
       <c r="A423" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B423" s="2448" t="inlineStr">
@@ -19271,19 +19271,19 @@
       </c>
       <c r="D423" s="2451" t="inlineStr">
         <is>
-          <t>Lifelong Learning Platform</t>
+          <t>The Council of European Professional Informatics Societies</t>
         </is>
       </c>
       <c r="E423" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference meeting on Skills  </t>
+          <t xml:space="preserve">Videoconference meeting on Skills   </t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B424" s="2448" t="inlineStr">
@@ -19298,19 +19298,19 @@
       </c>
       <c r="D424" s="2451" t="inlineStr">
         <is>
-          <t>The Council of European Professional Informatics Societies</t>
+          <t>Lifelong Learning Platform</t>
         </is>
       </c>
       <c r="E424" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference meeting on Skills   </t>
+          <t xml:space="preserve">Videoconference meeting on Skills  </t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira, Fabien Dell, Anouk Faber, Santina Bertulessi, Antoine Kasel</t>
+          <t>Anouk Faber, Antoine Kasel, Fabien Dell, Ana Carla  Pereira, Santina Bertulessi</t>
         </is>
       </c>
       <c r="B425" s="2448" t="inlineStr">
@@ -19337,7 +19337,7 @@
     <row r="426">
       <c r="A426" s="2451" t="inlineStr">
         <is>
-          <t>Santina Bertulessi, Fabien Dell, Antoine Kasel, Anouk Faber, Ana Carla  Pereira</t>
+          <t>Santina Bertulessi, Antoine Kasel, Anouk Faber, Fabien Dell, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B426" s="2448" t="inlineStr">
@@ -19715,7 +19715,7 @@
     <row r="440">
       <c r="A440" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich</t>
         </is>
       </c>
       <c r="B440" s="2448" t="inlineStr">
@@ -19730,19 +19730,19 @@
       </c>
       <c r="D440" s="2451" t="inlineStr">
         <is>
-          <t>Deutsche Post DHL Group</t>
+          <t>Manufacture Française des Pneumatiques Michelin</t>
         </is>
       </c>
       <c r="E440" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Skills </t>
+          <t>Updated Skills Agenda</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B441" s="2448" t="inlineStr">
@@ -19757,19 +19757,19 @@
       </c>
       <c r="D441" s="2451" t="inlineStr">
         <is>
-          <t>Manufacture Française des Pneumatiques Michelin</t>
+          <t>Deutsche Post DHL Group</t>
         </is>
       </c>
       <c r="E441" s="2451" t="inlineStr">
         <is>
-          <t>Updated Skills Agenda</t>
+          <t xml:space="preserve">Skills </t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Santina Bertulessi</t>
+          <t>Santina Bertulessi, Anouk Faber</t>
         </is>
       </c>
       <c r="B442" s="2448" t="inlineStr">
@@ -19850,7 +19850,7 @@
     <row r="445">
       <c r="A445" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B445" s="2448" t="inlineStr">
@@ -19860,24 +19860,24 @@
       </c>
       <c r="C445" s="2451" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Bruxelles</t>
         </is>
       </c>
       <c r="D445" s="2451" t="inlineStr">
         <is>
-          <t>Danish Trade Union Confederation EU Office</t>
+          <t>Les Restaurants du Cœur</t>
         </is>
       </c>
       <c r="E445" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Commission proposal on minimum wages </t>
+          <t>Lutte contre la pauvreté, ESF+</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B446" s="2448" t="inlineStr">
@@ -19887,17 +19887,17 @@
       </c>
       <c r="C446" s="2451" t="inlineStr">
         <is>
-          <t>Bruxelles</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D446" s="2451" t="inlineStr">
         <is>
-          <t>Les Restaurants du Cœur</t>
+          <t>Danish Trade Union Confederation EU Office</t>
         </is>
       </c>
       <c r="E446" s="2451" t="inlineStr">
         <is>
-          <t>Lutte contre la pauvreté, ESF+</t>
+          <t xml:space="preserve">Commission proposal on minimum wages </t>
         </is>
       </c>
     </row>
@@ -19931,7 +19931,7 @@
     <row r="448">
       <c r="A448" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich, Antoine Kasel</t>
+          <t>Christoph Nerlich, Antoine Kasel, Anouk Faber</t>
         </is>
       </c>
       <c r="B448" s="2448" t="inlineStr">
@@ -20012,7 +20012,7 @@
     <row r="451">
       <c r="A451" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel, Anouk Faber</t>
+          <t>Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B451" s="2448" t="inlineStr">
@@ -20027,19 +20027,19 @@
       </c>
       <c r="D451" s="2451" t="inlineStr">
         <is>
-          <t>FEDIL - The Voice of Luxembourg's Industry</t>
+          <t>European Anti Poverty Network</t>
         </is>
       </c>
       <c r="E451" s="2451" t="inlineStr">
         <is>
-          <t>Skills, Industrial Strategy and SMEs</t>
+          <t>Implementation of the action plan of the Social pilar, poverty</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira</t>
+          <t>Anouk Faber, Antoine Kasel</t>
         </is>
       </c>
       <c r="B452" s="2448" t="inlineStr">
@@ -20054,12 +20054,12 @@
       </c>
       <c r="D452" s="2451" t="inlineStr">
         <is>
-          <t>European Anti Poverty Network</t>
+          <t>FEDIL - The Voice of Luxembourg's Industry</t>
         </is>
       </c>
       <c r="E452" s="2451" t="inlineStr">
         <is>
-          <t>Implementation of the action plan of the Social pilar, poverty</t>
+          <t>Skills, Industrial Strategy and SMEs</t>
         </is>
       </c>
     </row>
@@ -20093,7 +20093,7 @@
     <row r="454">
       <c r="A454" s="2451" t="inlineStr">
         <is>
-          <t>Santina Bertulessi, Anouk Faber</t>
+          <t>Anouk Faber, Santina Bertulessi</t>
         </is>
       </c>
       <c r="B454" s="2448" t="inlineStr">
@@ -20282,7 +20282,7 @@
     <row r="461">
       <c r="A461" s="2451" t="inlineStr">
         <is>
-          <t>Santina Bertulessi, Christoph Nerlich, Anouk Faber, Ana Carla  Pereira</t>
+          <t>Santina Bertulessi, Ana Carla  Pereira, Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B461" s="2448" t="inlineStr">
@@ -20363,7 +20363,7 @@
     <row r="464">
       <c r="A464" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich, Fabien Dell</t>
+          <t>Ana Carla  Pereira, Anouk Faber</t>
         </is>
       </c>
       <c r="B464" s="2448" t="inlineStr">
@@ -20378,19 +20378,19 @@
       </c>
       <c r="D464" s="2451" t="inlineStr">
         <is>
-          <t>LinkedIn Ireland</t>
+          <t>Confederazione Generale Italiana del Lavoro</t>
         </is>
       </c>
       <c r="E464" s="2451" t="inlineStr">
         <is>
-          <t>skills agenda</t>
+          <t>Minimum wage</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira, Anouk Faber</t>
+          <t>Anouk Faber</t>
         </is>
       </c>
       <c r="B465" s="2448" t="inlineStr">
@@ -20405,19 +20405,19 @@
       </c>
       <c r="D465" s="2451" t="inlineStr">
         <is>
-          <t>Confederazione Generale Italiana del Lavoro</t>
+          <t>INCO.ORG</t>
         </is>
       </c>
       <c r="E465" s="2451" t="inlineStr">
         <is>
-          <t>Minimum wage</t>
+          <t>Economie Sociale</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber</t>
+          <t>Christoph Nerlich, Anouk Faber, Fabien Dell</t>
         </is>
       </c>
       <c r="B466" s="2448" t="inlineStr">
@@ -20432,12 +20432,12 @@
       </c>
       <c r="D466" s="2451" t="inlineStr">
         <is>
-          <t>INCO.ORG</t>
+          <t>LinkedIn Ireland</t>
         </is>
       </c>
       <c r="E466" s="2451" t="inlineStr">
         <is>
-          <t>Economie Sociale</t>
+          <t>skills agenda</t>
         </is>
       </c>
     </row>
@@ -20471,7 +20471,7 @@
     <row r="468">
       <c r="A468" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B468" s="2448" t="inlineStr">
@@ -20481,24 +20481,24 @@
       </c>
       <c r="C468" s="2451" t="inlineStr">
         <is>
-          <t>Davos</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D468" s="2451" t="inlineStr">
         <is>
-          <t>Uber</t>
+          <t>Deutscher Gewerkschaftsbund</t>
         </is>
       </c>
       <c r="E468" s="2451" t="inlineStr">
         <is>
-          <t>Skills agenda/Platform workers</t>
+          <t>minimum wage,Roadmap</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Antoine Kasel</t>
         </is>
       </c>
       <c r="B469" s="2448" t="inlineStr">
@@ -20508,17 +20508,17 @@
       </c>
       <c r="C469" s="2451" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Davos</t>
         </is>
       </c>
       <c r="D469" s="2451" t="inlineStr">
         <is>
-          <t>Deutscher Gewerkschaftsbund</t>
+          <t>Uber</t>
         </is>
       </c>
       <c r="E469" s="2451" t="inlineStr">
         <is>
-          <t>minimum wage,Roadmap</t>
+          <t>Skills agenda/Platform workers</t>
         </is>
       </c>
     </row>
@@ -20660,7 +20660,7 @@
     <row r="475">
       <c r="A475" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B475" s="2448" t="inlineStr">
@@ -20670,24 +20670,24 @@
       </c>
       <c r="C475" s="2451" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="D475" s="2451" t="inlineStr">
         <is>
-          <t>PwC Legal</t>
+          <t>Deutscher Gewerkschaftsbund</t>
         </is>
       </c>
       <c r="E475" s="2451" t="inlineStr">
         <is>
-          <t>Skills</t>
+          <t>Social Policies</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B476" s="2448" t="inlineStr">
@@ -20702,19 +20702,19 @@
       </c>
       <c r="D476" s="2451" t="inlineStr">
         <is>
-          <t>Bundesverband der Deutschen Industrie e.V.</t>
+          <t>Deutsche Industrie- und Handelskammer</t>
         </is>
       </c>
       <c r="E476" s="2451" t="inlineStr">
         <is>
-          <t>European Industry</t>
+          <t>Skilling</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Antoine Kasel</t>
         </is>
       </c>
       <c r="B477" s="2448" t="inlineStr">
@@ -20724,24 +20724,24 @@
       </c>
       <c r="C477" s="2451" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D477" s="2451" t="inlineStr">
         <is>
-          <t>Deutsche Industrie- und Handelskammer</t>
+          <t>PwC Legal</t>
         </is>
       </c>
       <c r="E477" s="2451" t="inlineStr">
         <is>
-          <t>Skilling</t>
+          <t>Skills</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B478" s="2448" t="inlineStr">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="D478" s="2451" t="inlineStr">
         <is>
-          <t>Deutscher Gewerkschaftsbund</t>
+          <t>Bundesverband der Deutschen Industrie e.V.</t>
         </is>
       </c>
       <c r="E478" s="2451" t="inlineStr">
         <is>
-          <t>Social Policies</t>
+          <t>European Industry</t>
         </is>
       </c>
     </row>
@@ -20822,7 +20822,7 @@
     <row r="481">
       <c r="A481" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel, Anouk Faber, Santina Bertulessi, Ana Carla  Pereira</t>
+          <t>Santina Bertulessi, Antoine Kasel, Ana Carla  Pereira, Anouk Faber</t>
         </is>
       </c>
       <c r="B481" s="2448" t="inlineStr">

--- a/meetings_dumped/schmit_cabinet.xlsx
+++ b/meetings_dumped/schmit_cabinet.xlsx
@@ -12526,7 +12526,7 @@
     <row r="174">
       <c r="A174" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira, Antoine Kasel, Anouk Faber</t>
+          <t>Anouk Faber, Ana Carla  Pereira, Antoine Kasel</t>
         </is>
       </c>
       <c r="B174" s="2448" t="inlineStr">
@@ -12580,7 +12580,7 @@
     <row r="176">
       <c r="A176" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B176" s="2448" t="inlineStr">
@@ -12607,7 +12607,7 @@
     <row r="177">
       <c r="A177" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Ana Carla  Pereira</t>
+          <t>Ana Carla  Pereira, Anouk Faber</t>
         </is>
       </c>
       <c r="B177" s="2448" t="inlineStr">
@@ -12661,7 +12661,7 @@
     <row r="179">
       <c r="A179" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Santina Bertulessi</t>
         </is>
       </c>
       <c r="B179" s="2448" t="inlineStr">
@@ -12671,24 +12671,24 @@
       </c>
       <c r="C179" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference </t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D179" s="2451" t="inlineStr">
         <is>
-          <t>Bayerische Motoren Werke Aktiengesellschaft</t>
+          <t>FONDAZIONE CASSA DI RISPARMIO DELLE PROVINCIE LOMBARDE</t>
         </is>
       </c>
       <c r="E179" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Preparatory meeting in view of a meeting with Ms Ilka Horstmeier, Member of the Board of Management of BMW AG, Human Resources, Labour Relations Director. </t>
+          <t xml:space="preserve"> Social Economy Action Plan and InvestEU</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Santina Bertulessi</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B180" s="2448" t="inlineStr">
@@ -12698,24 +12698,24 @@
       </c>
       <c r="C180" s="2451" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t xml:space="preserve">Videoconference </t>
         </is>
       </c>
       <c r="D180" s="2451" t="inlineStr">
         <is>
-          <t>FONDAZIONE CASSA DI RISPARMIO DELLE PROVINCIE LOMBARDE</t>
+          <t>Bayerische Motoren Werke Aktiengesellschaft</t>
         </is>
       </c>
       <c r="E180" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Social Economy Action Plan and InvestEU</t>
+          <t xml:space="preserve">Preparatory meeting in view of a meeting with Ms Ilka Horstmeier, Member of the Board of Management of BMW AG, Human Resources, Labour Relations Director. </t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Santina Bertulessi</t>
+          <t>Santina Bertulessi, Anouk Faber</t>
         </is>
       </c>
       <c r="B181" s="2448" t="inlineStr">
@@ -12769,7 +12769,7 @@
     <row r="183">
       <c r="A183" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Ana Carla  Pereira</t>
+          <t>Ana Carla  Pereira, Anouk Faber</t>
         </is>
       </c>
       <c r="B183" s="2448" t="inlineStr">
@@ -12958,7 +12958,7 @@
     <row r="190">
       <c r="A190" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B190" s="2448" t="inlineStr">
@@ -13012,7 +13012,7 @@
     <row r="192">
       <c r="A192" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Antoine Kasel</t>
         </is>
       </c>
       <c r="B192" s="2448" t="inlineStr">
@@ -13027,12 +13027,12 @@
       </c>
       <c r="D192" s="2451" t="inlineStr">
         <is>
-          <t>Vereinigung der österreichischen Industrie - Industriellenvereinigung</t>
+          <t>Handwerkskammer Erfurt</t>
         </is>
       </c>
       <c r="E192" s="2451" t="inlineStr">
         <is>
-          <t>The Pillar of Social rights (and an action plan), the minimum wage proposal and the initiative for social dialogue.</t>
+          <t xml:space="preserve"> Meeting with the Erfurt Chamber of Crafts on skills</t>
         </is>
       </c>
     </row>
@@ -13066,7 +13066,7 @@
     <row r="194">
       <c r="A194" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Antoine Kasel</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B194" s="2448" t="inlineStr">
@@ -13081,12 +13081,12 @@
       </c>
       <c r="D194" s="2451" t="inlineStr">
         <is>
-          <t>Handwerkskammer Erfurt</t>
+          <t>Vereinigung der österreichischen Industrie - Industriellenvereinigung</t>
         </is>
       </c>
       <c r="E194" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Meeting with the Erfurt Chamber of Crafts on skills</t>
+          <t>The Pillar of Social rights (and an action plan), the minimum wage proposal and the initiative for social dialogue.</t>
         </is>
       </c>
     </row>
@@ -13202,7 +13202,7 @@
     <row r="199">
       <c r="A199" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel, Anouk Faber, Fabien Dell</t>
+          <t>Fabien Dell, Anouk Faber, Antoine Kasel</t>
         </is>
       </c>
       <c r="B199" s="2448" t="inlineStr">
@@ -13229,7 +13229,7 @@
     <row r="200">
       <c r="A200" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B200" s="2448" t="inlineStr">
@@ -13391,7 +13391,7 @@
     <row r="206">
       <c r="A206" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber</t>
+          <t>Ana Carla  Pereira, Anouk Faber</t>
         </is>
       </c>
       <c r="B206" s="2448" t="inlineStr">
@@ -13401,24 +13401,25 @@
       </c>
       <c r="C206" s="2451" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D206" s="2451" t="inlineStr">
         <is>
-          <t>World Economic Forum</t>
+          <t>UNIÓN GENERAL DE TRABAJADORES DE ESPAÑA, European Alternatives Limited, Unione Italiana del Lavoro, Fagligt Fælles Forbund</t>
         </is>
       </c>
       <c r="E206" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> World Economic Forum Sustainable Development Impact Summit</t>
+          <t xml:space="preserve">Consultation hearing with organisations of platform workers on the ‘Initiative on improving working conditions in platform work’.  
+</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira, Anouk Faber</t>
+          <t>Anouk Faber</t>
         </is>
       </c>
       <c r="B207" s="2448" t="inlineStr">
@@ -13428,76 +13429,75 @@
       </c>
       <c r="C207" s="2451" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>online</t>
         </is>
       </c>
       <c r="D207" s="2451" t="inlineStr">
         <is>
-          <t>UNIÓN GENERAL DE TRABAJADORES DE ESPAÑA, European Alternatives Limited, Unione Italiana del Lavoro, Fagligt Fælles Forbund</t>
+          <t>World Economic Forum</t>
         </is>
       </c>
       <c r="E207" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consultation hearing with organisations of platform workers on the ‘Initiative on improving working conditions in platform work’.  
-</t>
+          <t xml:space="preserve"> World Economic Forum Sustainable Development Impact Summit</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2451" t="inlineStr">
         <is>
+          <t>Anouk Faber</t>
+        </is>
+      </c>
+      <c r="B208" s="2448" t="inlineStr">
+        <is>
+          <t>20/09/2021</t>
+        </is>
+      </c>
+      <c r="C208" s="2451" t="inlineStr">
+        <is>
+          <t>online</t>
+        </is>
+      </c>
+      <c r="D208" s="2451" t="inlineStr">
+        <is>
+          <t>Institute for Work &amp; Health</t>
+        </is>
+      </c>
+      <c r="E208" s="2451" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> XXII World Congress on Safety and Health at Work</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2451" t="inlineStr">
+        <is>
           <t>Anouk Faber, Ana Carla  Pereira</t>
         </is>
       </c>
-      <c r="B208" s="2448" t="inlineStr">
+      <c r="B209" s="2448" t="inlineStr">
         <is>
           <t>20/09/2021</t>
         </is>
       </c>
-      <c r="C208" s="2451" t="inlineStr">
+      <c r="C209" s="2451" t="inlineStr">
         <is>
           <t>Brussels</t>
         </is>
       </c>
-      <c r="D208" s="2451" t="inlineStr">
+      <c r="D209" s="2451" t="inlineStr">
         <is>
           <t>Bolt, Heetch, GlovoApp23, S.L., Uber, Wolt Enterprises, Delivery Hero SE, Deliveroo</t>
         </is>
       </c>
-      <c r="E208" s="2451" t="inlineStr">
+      <c r="E209" s="2451" t="inlineStr">
         <is>
           <t>Consultation hearing with digital labour platforms on the Initiative on improving working conditions in platform work.   
 (to be completed)</t>
         </is>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2451" t="inlineStr">
-        <is>
-          <t>Anouk Faber</t>
-        </is>
-      </c>
-      <c r="B209" s="2448" t="inlineStr">
-        <is>
-          <t>20/09/2021</t>
-        </is>
-      </c>
-      <c r="C209" s="2451" t="inlineStr">
-        <is>
-          <t>online</t>
-        </is>
-      </c>
-      <c r="D209" s="2451" t="inlineStr">
-        <is>
-          <t>Institute for Work &amp; Health</t>
-        </is>
-      </c>
-      <c r="E209" s="2451" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> XXII World Congress on Safety and Health at Work</t>
-        </is>
-      </c>
-    </row>
     <row r="210">
       <c r="A210" s="2451" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
     <row r="212">
       <c r="A212" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira, Anouk Faber, Andrea Nahles</t>
+          <t>Ana Carla  Pereira, Andrea Nahles, Anouk Faber</t>
         </is>
       </c>
       <c r="B212" s="2448" t="inlineStr">
@@ -13582,7 +13582,7 @@
     <row r="213">
       <c r="A213" s="2451" t="inlineStr">
         <is>
-          <t>Andrea Nahles</t>
+          <t>Fabien Dell, Anouk Faber, Santina Bertulessi</t>
         </is>
       </c>
       <c r="B213" s="2448" t="inlineStr">
@@ -13592,24 +13592,24 @@
       </c>
       <c r="C213" s="2451" t="inlineStr">
         <is>
-          <t>Bonn, Germany</t>
+          <t>Virtual</t>
         </is>
       </c>
       <c r="D213" s="2451" t="inlineStr">
         <is>
-          <t>Industriegewerkschaft Metall</t>
+          <t>Philanthropy Europe Association, Donors and Foundations Networks in Europe</t>
         </is>
       </c>
       <c r="E213" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Social dialogue</t>
+          <t>Barriers to philanthropy's cross border activity</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2451" t="inlineStr">
         <is>
-          <t>Fabien Dell, Santina Bertulessi, Anouk Faber</t>
+          <t>Andrea Nahles</t>
         </is>
       </c>
       <c r="B214" s="2448" t="inlineStr">
@@ -13619,17 +13619,17 @@
       </c>
       <c r="C214" s="2451" t="inlineStr">
         <is>
-          <t>Virtual</t>
+          <t>Bonn, Germany</t>
         </is>
       </c>
       <c r="D214" s="2451" t="inlineStr">
         <is>
-          <t>Philanthropy Europe Association, Donors and Foundations Networks in Europe</t>
+          <t>Industriegewerkschaft Metall</t>
         </is>
       </c>
       <c r="E214" s="2451" t="inlineStr">
         <is>
-          <t>Barriers to philanthropy's cross border activity</t>
+          <t xml:space="preserve"> Social dialogue</t>
         </is>
       </c>
     </row>
@@ -13717,7 +13717,7 @@
     <row r="218">
       <c r="A218" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Santina Bertulessi</t>
         </is>
       </c>
       <c r="B218" s="2448" t="inlineStr">
@@ -13727,24 +13727,24 @@
       </c>
       <c r="C218" s="2451" t="inlineStr">
         <is>
-          <t>Linz (AT)</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D218" s="2451" t="inlineStr">
         <is>
-          <t>SPAR Österreichische Warenhandels-AG</t>
+          <t>Bayerische Motoren Werke Aktiengesellschaft</t>
         </is>
       </c>
       <c r="E218" s="2451" t="inlineStr">
         <is>
-          <t>Project visit for the integration of long-term unemployed people.</t>
+          <t xml:space="preserve"> Right to disconnect </t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2451" t="inlineStr">
         <is>
-          <t>Santina Bertulessi</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B219" s="2448" t="inlineStr">
@@ -13754,17 +13754,17 @@
       </c>
       <c r="C219" s="2451" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Linz (AT)</t>
         </is>
       </c>
       <c r="D219" s="2451" t="inlineStr">
         <is>
-          <t>EUROCADRES - THE COUNCIL OF EUROPEAN PROFESSIONAL AND MANAGERIAL STAFF</t>
+          <t>SPAR Österreichische Warenhandels-AG</t>
         </is>
       </c>
       <c r="E219" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Right to disconnect </t>
+          <t>Project visit for the integration of long-term unemployed people.</t>
         </is>
       </c>
     </row>
@@ -13786,7 +13786,7 @@
       </c>
       <c r="D220" s="2451" t="inlineStr">
         <is>
-          <t>Bayerische Motoren Werke Aktiengesellschaft</t>
+          <t>EUROCADRES - THE COUNCIL OF EUROPEAN PROFESSIONAL AND MANAGERIAL STAFF</t>
         </is>
       </c>
       <c r="E220" s="2451" t="inlineStr">
@@ -13825,7 +13825,7 @@
     <row r="222">
       <c r="A222" s="2451" t="inlineStr">
         <is>
-          <t>Santina Bertulessi, Ana Carla  Pereira, Anouk Faber</t>
+          <t>Anouk Faber, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B222" s="2448" t="inlineStr">
@@ -13835,24 +13835,24 @@
       </c>
       <c r="C222" s="2451" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D222" s="2451" t="inlineStr">
         <is>
-          <t>Association Internationale de la Mutualité</t>
+          <t>The European Region of the International Lesbian, Gay, Bisexual, Trans and Intersex Association, European Federation of National Organisations working with the Homeless</t>
         </is>
       </c>
       <c r="E222" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Meeting on the Social Economy Action Plan and the future of welfare state.</t>
+          <t xml:space="preserve"> Meeting on LGBTIQ homelessness.  </t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Ana Carla  Pereira</t>
+          <t>Anouk Faber, Ana Carla  Pereira, Santina Bertulessi</t>
         </is>
       </c>
       <c r="B223" s="2448" t="inlineStr">
@@ -13862,17 +13862,17 @@
       </c>
       <c r="C223" s="2451" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D223" s="2451" t="inlineStr">
         <is>
-          <t>The European Region of the International Lesbian, Gay, Bisexual, Trans and Intersex Association, European Federation of National Organisations working with the Homeless</t>
+          <t>Association Internationale de la Mutualité</t>
         </is>
       </c>
       <c r="E223" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Meeting on LGBTIQ homelessness.  </t>
+          <t xml:space="preserve"> Meeting on the Social Economy Action Plan and the future of welfare state.</t>
         </is>
       </c>
     </row>
@@ -13987,7 +13987,7 @@
     <row r="228">
       <c r="A228" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Fabien Dell</t>
+          <t>Fabien Dell, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B228" s="2448" t="inlineStr">
@@ -14014,7 +14014,7 @@
     <row r="229">
       <c r="A229" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Antoine Kasel, Ana Carla  Pereira</t>
+          <t>Antoine Kasel, Anouk Faber, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B229" s="2448" t="inlineStr">
@@ -14041,7 +14041,7 @@
     <row r="230">
       <c r="A230" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel, Ana Carla  Pereira, Anouk Faber</t>
+          <t>Anouk Faber, Antoine Kasel, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B230" s="2448" t="inlineStr">
@@ -14068,7 +14068,7 @@
     <row r="231">
       <c r="A231" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira, Fabien Dell</t>
+          <t>Fabien Dell, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B231" s="2448" t="inlineStr">
@@ -14203,7 +14203,7 @@
     <row r="236">
       <c r="A236" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B236" s="2448" t="inlineStr">
@@ -14257,7 +14257,7 @@
     <row r="238">
       <c r="A238" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B238" s="2448" t="inlineStr">
@@ -14284,7 +14284,7 @@
     <row r="239">
       <c r="A239" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Ivana McDowell, Fabien Dell, Antoine Kasel, Santina Bertulessi</t>
+          <t>Ivana McDowell, Anouk Faber, Antoine Kasel, Santina Bertulessi, Fabien Dell</t>
         </is>
       </c>
       <c r="B239" s="2448" t="inlineStr">
@@ -14311,7 +14311,7 @@
     <row r="240">
       <c r="A240" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B240" s="2448" t="inlineStr">
@@ -14365,7 +14365,7 @@
     <row r="242">
       <c r="A242" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira, Ivana McDowell, Antoine Kasel, Anouk Faber</t>
+          <t>Antoine Kasel, Ana Carla  Pereira, Anouk Faber, Ivana McDowell</t>
         </is>
       </c>
       <c r="B242" s="2448" t="inlineStr">
@@ -14380,7 +14380,7 @@
       </c>
       <c r="D242" s="2451" t="inlineStr">
         <is>
-          <t>Uber</t>
+          <t>Bolt</t>
         </is>
       </c>
       <c r="E242" s="2451" t="inlineStr">
@@ -14392,7 +14392,7 @@
     <row r="243">
       <c r="A243" s="2451" t="inlineStr">
         <is>
-          <t>Ivana McDowell, Ana Carla  Pereira, Antoine Kasel, Anouk Faber</t>
+          <t>Antoine Kasel, Ana Carla  Pereira, Anouk Faber, Ivana McDowell</t>
         </is>
       </c>
       <c r="B243" s="2448" t="inlineStr">
@@ -14407,7 +14407,7 @@
       </c>
       <c r="D243" s="2451" t="inlineStr">
         <is>
-          <t>Bolt</t>
+          <t>Uber</t>
         </is>
       </c>
       <c r="E243" s="2451" t="inlineStr">
@@ -14527,7 +14527,7 @@
     <row r="248">
       <c r="A248" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B248" s="2448" t="inlineStr">
@@ -14554,7 +14554,7 @@
     <row r="249">
       <c r="A249" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Ana Carla  Pereira, Anouk Faber</t>
         </is>
       </c>
       <c r="B249" s="2448" t="inlineStr">
@@ -14564,24 +14564,24 @@
       </c>
       <c r="C249" s="2451" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>online</t>
         </is>
       </c>
       <c r="D249" s="2451" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE</t>
+          <t>IKEM - Innovations- och kemiindustrierna i Sverige AB (556865-4650), Bundesarbeitgeberverband Chemie e.V., European Chemical Employers Group</t>
         </is>
       </c>
       <c r="E249" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meeting on the Individual Learning Accounts (ILA). </t>
+          <t>EPSR, Directive on the adequate minimum wage, Reskilling and upskilling ahead of the Porto Social Summit</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Ana Carla  Pereira</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B250" s="2448" t="inlineStr">
@@ -14591,24 +14591,24 @@
       </c>
       <c r="C250" s="2451" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D250" s="2451" t="inlineStr">
         <is>
-          <t>IKEM - Innovations- och kemiindustrierna i Sverige AB (556865-4650), Bundesarbeitgeberverband Chemie e.V., European Chemical Employers Group</t>
+          <t>BUSINESSEUROPE</t>
         </is>
       </c>
       <c r="E250" s="2451" t="inlineStr">
         <is>
-          <t>EPSR, Directive on the adequate minimum wage, Reskilling and upskilling ahead of the Porto Social Summit</t>
+          <t xml:space="preserve">Meeting on the Individual Learning Accounts (ILA). </t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B251" s="2448" t="inlineStr">
@@ -14716,7 +14716,7 @@
     <row r="255">
       <c r="A255" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B255" s="2448" t="inlineStr">
@@ -14851,7 +14851,7 @@
     <row r="260">
       <c r="A260" s="2451" t="inlineStr">
         <is>
-          <t>Santina Bertulessi</t>
+          <t>Antoine Kasel, Anouk Faber</t>
         </is>
       </c>
       <c r="B260" s="2448" t="inlineStr">
@@ -14866,19 +14866,19 @@
       </c>
       <c r="D260" s="2451" t="inlineStr">
         <is>
-          <t>Confédération générale des Scop</t>
+          <t>Association des Banques et Banquiers, Luxembourg, Association Luxembourgeoise des Fonds d'Investissement</t>
         </is>
       </c>
       <c r="E260" s="2451" t="inlineStr">
         <is>
-          <t>European Action Plan for the Social Economy</t>
+          <t>Meeting on the funds and banking sector in Luxembourg, teleworking and the Right to Disconnect (R2D).</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel, Anouk Faber</t>
+          <t>Santina Bertulessi</t>
         </is>
       </c>
       <c r="B261" s="2448" t="inlineStr">
@@ -14893,12 +14893,12 @@
       </c>
       <c r="D261" s="2451" t="inlineStr">
         <is>
-          <t>Association des Banques et Banquiers, Luxembourg, Association Luxembourgeoise des Fonds d'Investissement</t>
+          <t>Confédération générale des Scop</t>
         </is>
       </c>
       <c r="E261" s="2451" t="inlineStr">
         <is>
-          <t>Meeting on the funds and banking sector in Luxembourg, teleworking and the Right to Disconnect (R2D).</t>
+          <t>European Action Plan for the Social Economy</t>
         </is>
       </c>
     </row>
@@ -14959,7 +14959,7 @@
     <row r="264">
       <c r="A264" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira, Anouk Faber</t>
+          <t>Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B264" s="2448" t="inlineStr">
@@ -14969,24 +14969,24 @@
       </c>
       <c r="C264" s="2451" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>online</t>
         </is>
       </c>
       <c r="D264" s="2451" t="inlineStr">
         <is>
-          <t>Českomoravská konfederace odborových svazů, The Central Organisation of Finnish Trade Unions SAK, Latvijas Brīvo arodbiedrību savienība, EUROPEAN TRADE UNION CONFEDERATION, European Federation of Food, Agriculture and Tourism Trade Unions, Irish Congress Trade Unions, Confederazione Generale Italiana del Lavoro, Deutscher Gewerkschaftsbund, European Trade Union Institute</t>
+          <t>Confédération des Petites et Moyennes Entreprises</t>
         </is>
       </c>
       <c r="E264" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Meeting on minimum wages.</t>
+          <t xml:space="preserve"> Proposal for a directive on adequate minimum wages in the EU</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2451" t="inlineStr">
         <is>
-          <t>Santina Bertulessi</t>
+          <t>Anouk Faber, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B265" s="2448" t="inlineStr">
@@ -15001,19 +15001,19 @@
       </c>
       <c r="D265" s="2451" t="inlineStr">
         <is>
-          <t>European Federation for Family Employment - Fédération européenne des emplois de la famille</t>
+          <t>Českomoravská konfederace odborových svazů, The Central Organisation of Finnish Trade Unions SAK, Latvijas Brīvo arodbiedrību savienība, EUROPEAN TRADE UNION CONFEDERATION, European Federation of Food, Agriculture and Tourism Trade Unions, Irish Congress Trade Unions, Confederazione Generale Italiana del Lavoro, Deutscher Gewerkschaftsbund, European Trade Union Institute</t>
         </is>
       </c>
       <c r="E265" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> European Pillar of Social Rights</t>
+          <t xml:space="preserve"> Meeting on minimum wages.</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira</t>
+          <t>Santina Bertulessi</t>
         </is>
       </c>
       <c r="B266" s="2448" t="inlineStr">
@@ -15023,24 +15023,24 @@
       </c>
       <c r="C266" s="2451" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D266" s="2451" t="inlineStr">
         <is>
-          <t>Confédération des Petites et Moyennes Entreprises</t>
+          <t>European Federation for Family Employment - Fédération européenne des emplois de la famille</t>
         </is>
       </c>
       <c r="E266" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Proposal for a directive on adequate minimum wages in the EU</t>
+          <t xml:space="preserve"> European Pillar of Social Rights</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2451" t="inlineStr">
         <is>
-          <t>Santina Bertulessi, Anouk Faber</t>
+          <t>Anouk Faber, Santina Bertulessi</t>
         </is>
       </c>
       <c r="B267" s="2448" t="inlineStr">
@@ -15067,7 +15067,7 @@
     <row r="268">
       <c r="A268" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B268" s="2448" t="inlineStr">
@@ -15082,19 +15082,19 @@
       </c>
       <c r="D268" s="2451" t="inlineStr">
         <is>
-          <t>Institut d'études politiques de Paris (Sciences Po)</t>
+          <t>ZF Friedrichshafen AG, Robert Bosch GmbH, TotalEnergies SE, Mercedes-Benz Group AG, MAHLE International GmbH, Bayerische Motoren Werke Aktiengesellschaft</t>
         </is>
       </c>
       <c r="E268" s="2451" t="inlineStr">
         <is>
-          <t>Intervention on social Europe in the Sciences Po course “European Seminar”.</t>
+          <t>Roundtable with transport value chain alliance - Transformation of the automotive value chain in the context of green recovery.</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Anouk Faber</t>
         </is>
       </c>
       <c r="B269" s="2448" t="inlineStr">
@@ -15109,12 +15109,12 @@
       </c>
       <c r="D269" s="2451" t="inlineStr">
         <is>
-          <t>ZF Friedrichshafen AG, Robert Bosch GmbH, TotalEnergies SE, Mercedes-Benz Group AG, MAHLE International GmbH, Bayerische Motoren Werke Aktiengesellschaft</t>
+          <t>Institut d'études politiques de Paris (Sciences Po)</t>
         </is>
       </c>
       <c r="E269" s="2451" t="inlineStr">
         <is>
-          <t>Roundtable with transport value chain alliance - Transformation of the automotive value chain in the context of green recovery.</t>
+          <t>Intervention on social Europe in the Sciences Po course “European Seminar”.</t>
         </is>
       </c>
     </row>
@@ -15148,7 +15148,7 @@
     <row r="271">
       <c r="A271" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B271" s="2448" t="inlineStr">
@@ -15175,7 +15175,7 @@
     <row r="272">
       <c r="A272" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B272" s="2448" t="inlineStr">
@@ -15202,7 +15202,7 @@
     <row r="273">
       <c r="A273" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B273" s="2448" t="inlineStr">
@@ -15229,7 +15229,7 @@
     <row r="274">
       <c r="A274" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B274" s="2448" t="inlineStr">
@@ -15239,24 +15239,24 @@
       </c>
       <c r="C274" s="2451" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D274" s="2451" t="inlineStr">
         <is>
-          <t>Confederazione Italiana Sindacati Lavoratori, EUROPEAN TRADE UNION CONFEDERATION</t>
+          <t>FoodDrinkEurope, Centre de liaison des industries transformatrices de viande de l'UE, Federación española de Industrias de Alimentación y Bebidas, European farmers, Federazione Italiana dell'Industria Alimentare, Conseil Européen des Jeunes Agriculteurs, Suedzucker AG, Nestlé S.A., Unilever, CEMA - European Agricultural Machinery Industry Association, Institut national de recherche pour l’agriculture, l’alimentation et l’environnement, COMITE EUROPEEN des FABRICANTS de SUCRE, AgriFood Lithuania DIH, European Federation of Food, Agriculture and Tourism Trade Unions</t>
         </is>
       </c>
       <c r="E274" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Future EU Budget </t>
+          <t xml:space="preserve">Pact for Skills roundtable with the representatives of agri-food sector.   </t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Christoph Nerlich</t>
         </is>
       </c>
       <c r="B275" s="2448" t="inlineStr">
@@ -15266,17 +15266,17 @@
       </c>
       <c r="C275" s="2451" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>online</t>
         </is>
       </c>
       <c r="D275" s="2451" t="inlineStr">
         <is>
-          <t>FoodDrinkEurope, Centre de liaison des industries transformatrices de viande de l'UE, Federación española de Industrias de Alimentación y Bebidas, European farmers, Federazione Italiana dell'Industria Alimentare, Conseil Européen des Jeunes Agriculteurs, Suedzucker AG, Nestlé S.A., Unilever, CEMA - European Agricultural Machinery Industry Association, Institut national de recherche pour l’agriculture, l’alimentation et l’environnement, COMITE EUROPEEN des FABRICANTS de SUCRE, AgriFood Lithuania DIH, European Federation of Food, Agriculture and Tourism Trade Unions</t>
+          <t>Confederazione Italiana Sindacati Lavoratori, EUROPEAN TRADE UNION CONFEDERATION</t>
         </is>
       </c>
       <c r="E275" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pact for Skills roundtable with the representatives of agri-food sector.   </t>
+          <t xml:space="preserve">Future EU Budget </t>
         </is>
       </c>
     </row>
@@ -15391,7 +15391,7 @@
     <row r="280">
       <c r="A280" s="2451" t="inlineStr">
         <is>
-          <t>Santina Bertulessi, Christoph Nerlich, Anouk Faber</t>
+          <t>Christoph Nerlich, Anouk Faber, Santina Bertulessi</t>
         </is>
       </c>
       <c r="B280" s="2448" t="inlineStr">
@@ -15418,7 +15418,7 @@
     <row r="281">
       <c r="A281" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira, Anouk Faber, Jose Antonio Vieira Da Silva</t>
+          <t>Jose Antonio Vieira Da Silva, Anouk Faber, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B281" s="2448" t="inlineStr">
@@ -15445,7 +15445,7 @@
     <row r="282">
       <c r="A282" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B282" s="2448" t="inlineStr">
@@ -15499,7 +15499,7 @@
     <row r="284">
       <c r="A284" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich, Santina Bertulessi</t>
+          <t>Christoph Nerlich, Santina Bertulessi, Anouk Faber</t>
         </is>
       </c>
       <c r="B284" s="2448" t="inlineStr">
@@ -15580,7 +15580,7 @@
     <row r="287">
       <c r="A287" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel, Anouk Faber, Andrea Nahles, Ana Carla  Pereira</t>
+          <t>Anouk Faber, Ana Carla  Pereira, Andrea Nahles, Antoine Kasel</t>
         </is>
       </c>
       <c r="B287" s="2448" t="inlineStr">
@@ -15607,7 +15607,7 @@
     <row r="288">
       <c r="A288" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel</t>
+          <t>Santina Bertulessi, Anouk Faber, Antoine Kasel, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B288" s="2448" t="inlineStr">
@@ -15617,24 +15617,24 @@
       </c>
       <c r="C288" s="2451" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D288" s="2451" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE</t>
+          <t>SGI Europe, BUSINESSEUROPE, SMEunited aisbl, EUROPEAN TRADE UNION CONFEDERATION</t>
         </is>
       </c>
       <c r="E288" s="2451" t="inlineStr">
         <is>
-          <t>Meeting on social initiatives</t>
+          <t xml:space="preserve">Meeting on the Action Plan to implement the European Pillar of Social Rights. </t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2451" t="inlineStr">
         <is>
-          <t>Santina Bertulessi, Anouk Faber, Antoine Kasel, Ana Carla  Pereira</t>
+          <t>Antoine Kasel</t>
         </is>
       </c>
       <c r="B289" s="2448" t="inlineStr">
@@ -15644,17 +15644,17 @@
       </c>
       <c r="C289" s="2451" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D289" s="2451" t="inlineStr">
         <is>
-          <t>SGI Europe, BUSINESSEUROPE, SMEunited aisbl, EUROPEAN TRADE UNION CONFEDERATION</t>
+          <t>BUSINESSEUROPE</t>
         </is>
       </c>
       <c r="E289" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meeting on the Action Plan to implement the European Pillar of Social Rights. </t>
+          <t>Meeting on social initiatives</t>
         </is>
       </c>
     </row>
@@ -15688,7 +15688,7 @@
     <row r="291">
       <c r="A291" s="2451" t="inlineStr">
         <is>
-          <t>Jose Antonio Vieira Da Silva, Ana Carla  Pereira, Antoine Kasel, Anouk Faber</t>
+          <t>Ana Carla  Pereira, Antoine Kasel, Anouk Faber, Jose Antonio Vieira Da Silva</t>
         </is>
       </c>
       <c r="B291" s="2448" t="inlineStr">
@@ -15769,7 +15769,7 @@
     <row r="294">
       <c r="A294" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Antoine Kasel</t>
+          <t>Antoine Kasel, Anouk Faber</t>
         </is>
       </c>
       <c r="B294" s="2448" t="inlineStr">
@@ -15796,7 +15796,7 @@
     <row r="295">
       <c r="A295" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Santina Bertulessi, Antoine Kasel</t>
+          <t>Santina Bertulessi, Antoine Kasel, Anouk Faber</t>
         </is>
       </c>
       <c r="B295" s="2448" t="inlineStr">
@@ -15823,7 +15823,7 @@
     <row r="296">
       <c r="A296" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B296" s="2448" t="inlineStr">
@@ -15850,7 +15850,7 @@
     <row r="297">
       <c r="A297" s="2451" t="inlineStr">
         <is>
-          <t>Santina Bertulessi, Anouk Faber</t>
+          <t>Anouk Faber, Santina Bertulessi</t>
         </is>
       </c>
       <c r="B297" s="2448" t="inlineStr">
@@ -15904,7 +15904,7 @@
     <row r="299">
       <c r="A299" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B299" s="2448" t="inlineStr">
@@ -15958,7 +15958,7 @@
     <row r="301">
       <c r="A301" s="2451" t="inlineStr">
         <is>
-          <t>Santina Bertulessi, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Santina Bertulessi</t>
         </is>
       </c>
       <c r="B301" s="2448" t="inlineStr">
@@ -15986,7 +15986,7 @@
     <row r="302">
       <c r="A302" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira</t>
+          <t>Anouk Faber</t>
         </is>
       </c>
       <c r="B302" s="2448" t="inlineStr">
@@ -15996,24 +15996,24 @@
       </c>
       <c r="C302" s="2451" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D302" s="2451" t="inlineStr">
         <is>
-          <t>Fagbevægelsens Hovedorganisation, Fagligt Fælles Forbund</t>
+          <t>The European Region of the International Lesbian, Gay, Bisexual, Trans and Intersex Association</t>
         </is>
       </c>
       <c r="E302" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">European Pillar of Social Rights </t>
+          <t xml:space="preserve">Meeting on the socioeconomic inequalities faced by LGBTI people in Europe. </t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber</t>
+          <t>Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B303" s="2448" t="inlineStr">
@@ -16023,24 +16023,24 @@
       </c>
       <c r="C303" s="2451" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>online</t>
         </is>
       </c>
       <c r="D303" s="2451" t="inlineStr">
         <is>
-          <t>The European Region of the International Lesbian, Gay, Bisexual, Trans and Intersex Association</t>
+          <t>Fagbevægelsens Hovedorganisation, Fagligt Fælles Forbund</t>
         </is>
       </c>
       <c r="E303" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meeting on the socioeconomic inequalities faced by LGBTI people in Europe. </t>
+          <t xml:space="preserve">European Pillar of Social Rights </t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Ana Carla  Pereira</t>
+          <t>Ana Carla  Pereira, Anouk Faber</t>
         </is>
       </c>
       <c r="B304" s="2448" t="inlineStr">
@@ -16067,7 +16067,7 @@
     <row r="305">
       <c r="A305" s="2451" t="inlineStr">
         <is>
-          <t>Fabien Dell, Anouk Faber, Antoine Kasel</t>
+          <t>Antoine Kasel, Anouk Faber, Fabien Dell</t>
         </is>
       </c>
       <c r="B305" s="2448" t="inlineStr">
@@ -16148,7 +16148,7 @@
     <row r="308">
       <c r="A308" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira, Anouk Faber</t>
+          <t>Anouk Faber</t>
         </is>
       </c>
       <c r="B308" s="2448" t="inlineStr">
@@ -16158,17 +16158,17 @@
       </c>
       <c r="C308" s="2451" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t xml:space="preserve">Videoconference </t>
         </is>
       </c>
       <c r="D308" s="2451" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE, SMEunited aisbl, Central Europe Energy Partners, EUROPEAN TRADE UNION CONFEDERATION, Deutscher Gewerkschaftsbund, Bundesvereinigung der Deutschen Arbeitgeberverbände e.V.</t>
+          <t>European Federation of Food, Agriculture and Tourism Trade Unions</t>
         </is>
       </c>
       <c r="E308" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Exchange of views on minimum wages and the Recovery and Resilience Facility. </t>
+          <t>Meeting on the labour standards in the meat sector and other concerns in the food and agriculture sectors.</t>
         </is>
       </c>
     </row>
@@ -16202,7 +16202,7 @@
     <row r="310">
       <c r="A310" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber</t>
+          <t>Ana Carla  Pereira, Anouk Faber</t>
         </is>
       </c>
       <c r="B310" s="2448" t="inlineStr">
@@ -16212,24 +16212,24 @@
       </c>
       <c r="C310" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference </t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D310" s="2451" t="inlineStr">
         <is>
-          <t>European Federation of Food, Agriculture and Tourism Trade Unions</t>
+          <t>BUSINESSEUROPE, SMEunited aisbl, Central Europe Energy Partners, EUROPEAN TRADE UNION CONFEDERATION, Deutscher Gewerkschaftsbund, Bundesvereinigung der Deutschen Arbeitgeberverbände e.V.</t>
         </is>
       </c>
       <c r="E310" s="2451" t="inlineStr">
         <is>
-          <t>Meeting on the labour standards in the meat sector and other concerns in the food and agriculture sectors.</t>
+          <t xml:space="preserve">Exchange of views on minimum wages and the Recovery and Resilience Facility. </t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2451" t="inlineStr">
         <is>
-          <t>Andrea Nahles</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B311" s="2448" t="inlineStr">
@@ -16239,24 +16239,24 @@
       </c>
       <c r="C311" s="2451" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t xml:space="preserve">Videoconference </t>
         </is>
       </c>
       <c r="D311" s="2451" t="inlineStr">
         <is>
-          <t>Council of European Employers of the Metal, Engineering and Technology-based Industries</t>
+          <t>Polska Izba Budownictwa, EUROPEAN FEDERATION OF BUILDING AND WOODWORKERS, European Association of Electrical Contractors, European Construction Industry Federation, EUREC- The association of European Renewable Energy Research Centres, Knauf Energy Solutions, Universidade do Porto, European Builders Confederation AISBL</t>
         </is>
       </c>
       <c r="E311" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Social Dialogue</t>
+          <t>Pact for Skills roundtable with the construction sector.</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Anouk Faber</t>
         </is>
       </c>
       <c r="B312" s="2448" t="inlineStr">
@@ -16271,19 +16271,19 @@
       </c>
       <c r="D312" s="2451" t="inlineStr">
         <is>
-          <t>Polska Izba Budownictwa, EUROPEAN FEDERATION OF BUILDING AND WOODWORKERS, European Association of Electrical Contractors, European Construction Industry Federation, EUREC- The association of European Renewable Energy Research Centres, Knauf Energy Solutions, Universidade do Porto, European Builders Confederation AISBL</t>
+          <t>European Federation of Nurses Associations</t>
         </is>
       </c>
       <c r="E312" s="2451" t="inlineStr">
         <is>
-          <t>Pact for Skills roundtable with the construction sector.</t>
+          <t>Meeting on the challenges faced by frontline workers during the Covid-19 crisis.</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber</t>
+          <t>Andrea Nahles</t>
         </is>
       </c>
       <c r="B313" s="2448" t="inlineStr">
@@ -16293,17 +16293,17 @@
       </c>
       <c r="C313" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference </t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D313" s="2451" t="inlineStr">
         <is>
-          <t>European Federation of Nurses Associations</t>
+          <t>Council of European Employers of the Metal, Engineering and Technology-based Industries</t>
         </is>
       </c>
       <c r="E313" s="2451" t="inlineStr">
         <is>
-          <t>Meeting on the challenges faced by frontline workers during the Covid-19 crisis.</t>
+          <t xml:space="preserve"> Social Dialogue</t>
         </is>
       </c>
     </row>
@@ -16391,7 +16391,7 @@
     <row r="317">
       <c r="A317" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Eugenia Dumitriu-Segnana</t>
+          <t>Eugenia Dumitriu-Segnana, Anouk Faber</t>
         </is>
       </c>
       <c r="B317" s="2448" t="inlineStr">
@@ -16445,7 +16445,7 @@
     <row r="319">
       <c r="A319" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira, Anouk Faber, Antoine Kasel</t>
+          <t>Antoine Kasel, Ana Carla  Pereira, Anouk Faber</t>
         </is>
       </c>
       <c r="B319" s="2448" t="inlineStr">
@@ -16634,7 +16634,7 @@
     <row r="326">
       <c r="A326" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Antoine Kasel</t>
+          <t>Antoine Kasel, Anouk Faber</t>
         </is>
       </c>
       <c r="B326" s="2448" t="inlineStr">
@@ -16661,7 +16661,7 @@
     <row r="327">
       <c r="A327" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel, Anouk Faber, Ana Carla  Pereira</t>
+          <t>Anouk Faber, Ana Carla  Pereira, Antoine Kasel</t>
         </is>
       </c>
       <c r="B327" s="2448" t="inlineStr">
@@ -16797,7 +16797,7 @@
     <row r="332">
       <c r="A332" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B332" s="2448" t="inlineStr">
@@ -16905,7 +16905,7 @@
     <row r="336">
       <c r="A336" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B336" s="2448" t="inlineStr">
@@ -17013,7 +17013,7 @@
     <row r="340">
       <c r="A340" s="2451" t="inlineStr">
         <is>
-          <t>Fabien Dell, Anouk Faber, Antoine Kasel</t>
+          <t>Antoine Kasel, Fabien Dell, Anouk Faber</t>
         </is>
       </c>
       <c r="B340" s="2448" t="inlineStr">
@@ -17040,7 +17040,7 @@
     <row r="341">
       <c r="A341" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Antoine Kasel, Anouk Faber</t>
+          <t>Anouk Faber, Antoine Kasel, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B341" s="2448" t="inlineStr">
@@ -17284,7 +17284,7 @@
     <row r="350">
       <c r="A350" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B350" s="2448" t="inlineStr">
@@ -17419,7 +17419,7 @@
     <row r="355">
       <c r="A355" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B355" s="2448" t="inlineStr">
@@ -17527,7 +17527,7 @@
     <row r="359">
       <c r="A359" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B359" s="2448" t="inlineStr">
@@ -17623,12 +17623,12 @@
       </c>
       <c r="D362" s="2451" t="inlineStr">
         <is>
-          <t>SES S.A.</t>
+          <t>Chambre des salariés, Lëtzebuerger Chrëschtleche Gewerkschafts-Bond</t>
         </is>
       </c>
       <c r="E362" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Presentation of the SES activities. </t>
+          <t xml:space="preserve">Entrevue sur investissements dans les compétences et la transition numérique pour accélérer la reprise, les stratégies numériques et industrielles, les PME. </t>
         </is>
       </c>
     </row>
@@ -17650,12 +17650,12 @@
       </c>
       <c r="D363" s="2451" t="inlineStr">
         <is>
-          <t>Chambre des Métiers du Grand-Duché du Luxembourg, FEDIL - The Voice of Luxembourg's Industry, Association des Banques et Banquiers, Luxembourg, Union des Entreprises Luxembourgeoises, Association Luxembourgeoise des Fonds d'Investissement</t>
+          <t>SES S.A.</t>
         </is>
       </c>
       <c r="E363" s="2451" t="inlineStr">
         <is>
-          <t>Entrevue sur les investissements dans les compétences et la transition numérique pour accélérer la reprise, les stratégies numériques et industrielles, les PME.</t>
+          <t xml:space="preserve">Presentation of the SES activities. </t>
         </is>
       </c>
     </row>
@@ -17677,12 +17677,12 @@
       </c>
       <c r="D364" s="2451" t="inlineStr">
         <is>
-          <t>Chambre des salariés, Lëtzebuerger Chrëschtleche Gewerkschafts-Bond</t>
+          <t>Chambre des Métiers du Grand-Duché du Luxembourg, FEDIL - The Voice of Luxembourg's Industry, Association des Banques et Banquiers, Luxembourg, Union des Entreprises Luxembourgeoises, Association Luxembourgeoise des Fonds d'Investissement</t>
         </is>
       </c>
       <c r="E364" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entrevue sur investissements dans les compétences et la transition numérique pour accélérer la reprise, les stratégies numériques et industrielles, les PME. </t>
+          <t>Entrevue sur les investissements dans les compétences et la transition numérique pour accélérer la reprise, les stratégies numériques et industrielles, les PME.</t>
         </is>
       </c>
     </row>
@@ -17743,7 +17743,7 @@
     <row r="367">
       <c r="A367" s="2451" t="inlineStr">
         <is>
-          <t>Eugenia Dumitriu-Segnana, Anouk Faber, Ana Carla  Pereira</t>
+          <t>Eugenia Dumitriu-Segnana, Ana Carla  Pereira, Anouk Faber</t>
         </is>
       </c>
       <c r="B367" s="2448" t="inlineStr">
@@ -17824,7 +17824,7 @@
     <row r="370">
       <c r="A370" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira, Eugenia Dumitriu-Segnana, Anouk Faber</t>
+          <t>Anouk Faber, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B370" s="2448" t="inlineStr">
@@ -17834,24 +17834,24 @@
       </c>
       <c r="C370" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference </t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D370" s="2451" t="inlineStr">
         <is>
-          <t>AFL-CIO, EUROPEAN TRADE UNION CONFEDERATION</t>
+          <t>EUROPEAN TRADE UNION CONFEDERATION, AFL-CIO</t>
         </is>
       </c>
       <c r="E370" s="2451" t="inlineStr">
         <is>
-          <t>Meeting with the European Trade Union Confederation (ETUC) and the US Trade Union Confederation (AFL-CIO) to discuss the EU/US relationships on labour and social issues.</t>
+          <t xml:space="preserve">Meeting on labour and social issues in EU/US. </t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira, Anouk Faber</t>
+          <t>Eugenia Dumitriu-Segnana, Ana Carla  Pereira, Anouk Faber</t>
         </is>
       </c>
       <c r="B371" s="2448" t="inlineStr">
@@ -17861,17 +17861,17 @@
       </c>
       <c r="C371" s="2451" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t xml:space="preserve">Videoconference </t>
         </is>
       </c>
       <c r="D371" s="2451" t="inlineStr">
         <is>
-          <t>EUROPEAN TRADE UNION CONFEDERATION, AFL-CIO</t>
+          <t>AFL-CIO, EUROPEAN TRADE UNION CONFEDERATION</t>
         </is>
       </c>
       <c r="E371" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meeting on labour and social issues in EU/US. </t>
+          <t>Meeting with the European Trade Union Confederation (ETUC) and the US Trade Union Confederation (AFL-CIO) to discuss the EU/US relationships on labour and social issues.</t>
         </is>
       </c>
     </row>
@@ -17888,24 +17888,24 @@
       </c>
       <c r="C372" s="2451" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t xml:space="preserve">Videoconference </t>
         </is>
       </c>
       <c r="D372" s="2451" t="inlineStr">
         <is>
-          <t>SMEunited aisbl</t>
+          <t>European Forum of technical and Vocational Education and Training, European Association of Regional and Local Authorities for Lifelong Learning</t>
         </is>
       </c>
       <c r="E372" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meeting on Vocational Education and Training as well as apprenticeships. </t>
+          <t>Meeting on green skills.</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B373" s="2448" t="inlineStr">
@@ -17915,17 +17915,17 @@
       </c>
       <c r="C373" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference </t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D373" s="2451" t="inlineStr">
         <is>
-          <t>European Forum of technical and Vocational Education and Training, European Association of Regional and Local Authorities for Lifelong Learning</t>
+          <t>SMEunited aisbl</t>
         </is>
       </c>
       <c r="E373" s="2451" t="inlineStr">
         <is>
-          <t>Meeting on green skills.</t>
+          <t xml:space="preserve">Meeting on Vocational Education and Training as well as apprenticeships. </t>
         </is>
       </c>
     </row>
@@ -17959,7 +17959,7 @@
     <row r="375">
       <c r="A375" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Santina Bertulessi</t>
+          <t>Santina Bertulessi, Anouk Faber</t>
         </is>
       </c>
       <c r="B375" s="2448" t="inlineStr">
@@ -17986,7 +17986,7 @@
     <row r="376">
       <c r="A376" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B376" s="2448" t="inlineStr">
@@ -17996,24 +17996,24 @@
       </c>
       <c r="C376" s="2451" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>VC</t>
         </is>
       </c>
       <c r="D376" s="2451" t="inlineStr">
         <is>
-          <t>European DIGITAL SME Alliance</t>
+          <t>industriAll European Trade Union, European Federation of Public Service Unions, EUROPEAN FEDERATION OF BUILDING AND WOODWORKERS, EUROPEAN TRADE UNION CONFEDERATION, European Federation of Food, Agriculture and Tourism Trade Unions</t>
         </is>
       </c>
       <c r="E376" s="2451" t="inlineStr">
         <is>
-          <t>Meeting on the recovery strategy and the sustainable digitalisation of SMEs.</t>
+          <t xml:space="preserve"> European trade unions’ call for swift action on worker involvement rights</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B377" s="2448" t="inlineStr">
@@ -18023,24 +18023,24 @@
       </c>
       <c r="C377" s="2451" t="inlineStr">
         <is>
-          <t>VC</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D377" s="2451" t="inlineStr">
         <is>
-          <t>industriAll European Trade Union, European Federation of Public Service Unions, EUROPEAN FEDERATION OF BUILDING AND WOODWORKERS, EUROPEAN TRADE UNION CONFEDERATION, European Federation of Food, Agriculture and Tourism Trade Unions</t>
+          <t>European DIGITAL SME Alliance</t>
         </is>
       </c>
       <c r="E377" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> European trade unions’ call for swift action on worker involvement rights</t>
+          <t>Meeting on the recovery strategy and the sustainable digitalisation of SMEs.</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B378" s="2448" t="inlineStr">
@@ -18055,19 +18055,19 @@
       </c>
       <c r="D378" s="2451" t="inlineStr">
         <is>
-          <t>Nestlé S.A.</t>
+          <t>Eurocities</t>
         </is>
       </c>
       <c r="E378" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference on the effect of the crisis on employment, especially youth employment, apprenticeships and skills.  </t>
+          <t xml:space="preserve">Videoconference on the effect of the crisis on the most vulnerables, the important role of cities in the crisis and the recovery.   </t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B379" s="2448" t="inlineStr">
@@ -18082,19 +18082,19 @@
       </c>
       <c r="D379" s="2451" t="inlineStr">
         <is>
-          <t>Eurocities</t>
+          <t>Nestlé S.A.</t>
         </is>
       </c>
       <c r="E379" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference on the effect of the crisis on the most vulnerables, the important role of cities in the crisis and the recovery.   </t>
+          <t xml:space="preserve">Videoconference on the effect of the crisis on employment, especially youth employment, apprenticeships and skills.  </t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich, Ana Carla  Pereira, Antoine Kasel</t>
+          <t>Ana Carla  Pereira, Antoine Kasel, Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B380" s="2448" t="inlineStr">
@@ -18148,7 +18148,7 @@
     <row r="382">
       <c r="A382" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B382" s="2448" t="inlineStr">
@@ -18175,7 +18175,7 @@
     <row r="383">
       <c r="A383" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich, Antoine Kasel</t>
+          <t>Antoine Kasel, Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B383" s="2448" t="inlineStr">
@@ -18202,7 +18202,7 @@
     <row r="384">
       <c r="A384" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B384" s="2448" t="inlineStr">
@@ -18217,19 +18217,19 @@
       </c>
       <c r="D384" s="2451" t="inlineStr">
         <is>
-          <t>European Forum of technical and Vocational Education and Training, Europäischer Verband Beruflicher Bildungsträger, European Providers of Vocational Education and Training, European Association of Institutions in Higher Education, European University Continuing Education Network, Association Européenne pour la Formation Professionnelle / European Vocational Training Association</t>
+          <t>EUROCHAMBRES – Association of European Chambers of Commerce and Industry</t>
         </is>
       </c>
       <c r="E384" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference on Vocational Education and Training (VET) and the impact of the crisis on VET. </t>
+          <t xml:space="preserve">Videoconference on skills, Vocational Education and Training (VET) and SURE.  </t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Anouk Faber</t>
         </is>
       </c>
       <c r="B385" s="2448" t="inlineStr">
@@ -18244,19 +18244,19 @@
       </c>
       <c r="D385" s="2451" t="inlineStr">
         <is>
-          <t>EUROCHAMBRES – Association of European Chambers of Commerce and Industry</t>
+          <t>European Forum of technical and Vocational Education and Training, Europäischer Verband Beruflicher Bildungsträger, European Providers of Vocational Education and Training, European Association of Institutions in Higher Education, European University Continuing Education Network, Association Européenne pour la Formation Professionnelle / European Vocational Training Association</t>
         </is>
       </c>
       <c r="E385" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference on skills, Vocational Education and Training (VET) and SURE.  </t>
+          <t xml:space="preserve">Videoconference on Vocational Education and Training (VET) and the impact of the crisis on VET. </t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Anouk Faber, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B386" s="2448" t="inlineStr">
@@ -18266,17 +18266,17 @@
       </c>
       <c r="C386" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference </t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D386" s="2451" t="inlineStr">
         <is>
-          <t>The Adecco Group</t>
+          <t>BUSINESSEUROPE, SMEunited aisbl, SGI Europe, EUROPEAN TRADE UNION CONFEDERATION</t>
         </is>
       </c>
       <c r="E386" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference on the effect of the crisis on employment and the importance of skills.  </t>
+          <t xml:space="preserve">High-level hearing with Executive Vice-President Dombrovskis and the Social Partners on the Action plan to implement the European Pillar of Social Rights.  </t>
         </is>
       </c>
     </row>
@@ -18310,7 +18310,7 @@
     <row r="388">
       <c r="A388" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B388" s="2448" t="inlineStr">
@@ -18320,24 +18320,24 @@
       </c>
       <c r="C388" s="2451" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t xml:space="preserve">Videoconference </t>
         </is>
       </c>
       <c r="D388" s="2451" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE, SMEunited aisbl, SGI Europe, EUROPEAN TRADE UNION CONFEDERATION</t>
+          <t>The Adecco Group</t>
         </is>
       </c>
       <c r="E388" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">High-level hearing with Executive Vice-President Dombrovskis and the Social Partners on the Action plan to implement the European Pillar of Social Rights.  </t>
+          <t xml:space="preserve">Videoconference on the effect of the crisis on employment and the importance of skills.  </t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2451" t="inlineStr">
         <is>
-          <t>Santina Bertulessi</t>
+          <t>Santina Bertulessi, Anouk Faber, Antoine Kasel, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B389" s="2448" t="inlineStr">
@@ -18347,24 +18347,24 @@
       </c>
       <c r="C389" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">VC </t>
+          <t xml:space="preserve">Videoconference </t>
         </is>
       </c>
       <c r="D389" s="2451" t="inlineStr">
         <is>
-          <t>Eurochild AISBL</t>
+          <t>industriAll European Trade Union</t>
         </is>
       </c>
       <c r="E389" s="2451" t="inlineStr">
         <is>
-          <t>Child Poverty</t>
+          <t xml:space="preserve">Videoconference on the closure of Nissan plant in Barcelona. </t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel, Ana Carla  Pereira, Anouk Faber, Santina Bertulessi</t>
+          <t>Santina Bertulessi</t>
         </is>
       </c>
       <c r="B390" s="2448" t="inlineStr">
@@ -18374,17 +18374,17 @@
       </c>
       <c r="C390" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference </t>
+          <t xml:space="preserve">VC </t>
         </is>
       </c>
       <c r="D390" s="2451" t="inlineStr">
         <is>
-          <t>industriAll European Trade Union</t>
+          <t>Eurochild AISBL</t>
         </is>
       </c>
       <c r="E390" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference on the closure of Nissan plant in Barcelona. </t>
+          <t>Child Poverty</t>
         </is>
       </c>
     </row>
@@ -18418,7 +18418,7 @@
     <row r="392">
       <c r="A392" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Christoph Nerlich, Eugenia Dumitriu-Segnana, Antoine Kasel, Fabien Dell, Anouk Faber</t>
         </is>
       </c>
       <c r="B392" s="2448" t="inlineStr">
@@ -18433,19 +18433,19 @@
       </c>
       <c r="D392" s="2451" t="inlineStr">
         <is>
-          <t>General Aviation Manufacturers Association</t>
+          <t>Airbus</t>
         </is>
       </c>
       <c r="E392" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Videoconference on skills  </t>
+          <t xml:space="preserve">Videoconference on the effects of the crisis on the aviation sector and skills. </t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel, Eugenia Dumitriu-Segnana, Christoph Nerlich, Anouk Faber, Fabien Dell</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B393" s="2448" t="inlineStr">
@@ -18460,12 +18460,12 @@
       </c>
       <c r="D393" s="2451" t="inlineStr">
         <is>
-          <t>Airbus</t>
+          <t>American Chamber of Commerce to the European Union</t>
         </is>
       </c>
       <c r="E393" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference on the effects of the crisis on the aviation sector and skills. </t>
+          <t xml:space="preserve">Videoconference on future of work and skills  </t>
         </is>
       </c>
     </row>
@@ -18487,19 +18487,19 @@
       </c>
       <c r="D394" s="2451" t="inlineStr">
         <is>
-          <t>American Chamber of Commerce to the European Union</t>
+          <t>General Aviation Manufacturers Association</t>
         </is>
       </c>
       <c r="E394" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference on future of work and skills  </t>
+          <t xml:space="preserve"> Videoconference on skills  </t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich, Antoine Kasel</t>
+          <t>Antoine Kasel, Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B395" s="2448" t="inlineStr">
@@ -18526,7 +18526,7 @@
     <row r="396">
       <c r="A396" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B396" s="2448" t="inlineStr">
@@ -18553,7 +18553,7 @@
     <row r="397">
       <c r="A397" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel, Anouk Faber</t>
+          <t>Anouk Faber, Antoine Kasel</t>
         </is>
       </c>
       <c r="B397" s="2448" t="inlineStr">
@@ -18607,7 +18607,7 @@
     <row r="399">
       <c r="A399" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Santina Bertulessi, Anouk Faber, Antoine Kasel</t>
+          <t>Anouk Faber</t>
         </is>
       </c>
       <c r="B399" s="2448" t="inlineStr">
@@ -18622,19 +18622,20 @@
       </c>
       <c r="D399" s="2451" t="inlineStr">
         <is>
-          <t>Volkswagen Aktiengesellschaft</t>
+          <t>The Institute of International and European Affairs, Brussels</t>
         </is>
       </c>
       <c r="E399" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference on recovery and skills.  </t>
+          <t xml:space="preserve">IIEA online conference "The EU's social agenda, in particular in light of the COVID-19 pandemic and the EU's post-crisis
+recovery". </t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber</t>
+          <t>Antoine Kasel, Santina Bertulessi, Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B400" s="2448" t="inlineStr">
@@ -18649,13 +18650,12 @@
       </c>
       <c r="D400" s="2451" t="inlineStr">
         <is>
-          <t>The Institute of International and European Affairs, Brussels</t>
+          <t>Volkswagen Aktiengesellschaft</t>
         </is>
       </c>
       <c r="E400" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">IIEA online conference "The EU's social agenda, in particular in light of the COVID-19 pandemic and the EU's post-crisis
-recovery". </t>
+          <t xml:space="preserve">Videoconference on recovery and skills.  </t>
         </is>
       </c>
     </row>
@@ -18716,7 +18716,7 @@
     <row r="403">
       <c r="A403" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Ana Carla  Pereira, Antoine Kasel</t>
+          <t>Anouk Faber, Antoine Kasel, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B403" s="2448" t="inlineStr">
@@ -18770,7 +18770,7 @@
     <row r="405">
       <c r="A405" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira, Antoine Kasel</t>
+          <t>Antoine Kasel, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B405" s="2448" t="inlineStr">
@@ -18824,7 +18824,7 @@
     <row r="407">
       <c r="A407" s="2451" t="inlineStr">
         <is>
-          <t>Eugenia Dumitriu-Segnana, Anouk Faber, Antoine Kasel</t>
+          <t>Eugenia Dumitriu-Segnana, Antoine Kasel, Anouk Faber</t>
         </is>
       </c>
       <c r="B407" s="2448" t="inlineStr">
@@ -18878,7 +18878,7 @@
     <row r="409">
       <c r="A409" s="2451" t="inlineStr">
         <is>
-          <t>Santina Bertulessi, Anouk Faber, Antoine Kasel</t>
+          <t>Antoine Kasel, Anouk Faber, Santina Bertulessi</t>
         </is>
       </c>
       <c r="B409" s="2448" t="inlineStr">
@@ -18932,7 +18932,7 @@
     <row r="411">
       <c r="A411" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber</t>
+          <t>Santina Bertulessi, Anouk Faber</t>
         </is>
       </c>
       <c r="B411" s="2448" t="inlineStr">
@@ -18947,19 +18947,19 @@
       </c>
       <c r="D411" s="2451" t="inlineStr">
         <is>
-          <t>Platform of European Social NGOs</t>
+          <t>Volkswagen Aktiengesellschaft</t>
         </is>
       </c>
       <c r="E411" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference for Social Platform to present the outcome of their General Assembly, their mission and vision, discussion about the revision of the Commission Working Programme, dialogue between the Commission and civil society organisations. </t>
+          <t xml:space="preserve">Videoconference to prepare the VW meeting on recovery and skills.    </t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Santina Bertulessi</t>
+          <t>Anouk Faber</t>
         </is>
       </c>
       <c r="B412" s="2448" t="inlineStr">
@@ -18974,12 +18974,12 @@
       </c>
       <c r="D412" s="2451" t="inlineStr">
         <is>
-          <t>Volkswagen Aktiengesellschaft</t>
+          <t>Platform of European Social NGOs</t>
         </is>
       </c>
       <c r="E412" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference to prepare the VW meeting on recovery and skills.    </t>
+          <t xml:space="preserve">Videoconference for Social Platform to present the outcome of their General Assembly, their mission and vision, discussion about the revision of the Commission Working Programme, dialogue between the Commission and civil society organisations. </t>
         </is>
       </c>
     </row>
@@ -19013,7 +19013,7 @@
     <row r="414">
       <c r="A414" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira, Anouk Faber</t>
+          <t>Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B414" s="2448" t="inlineStr">
@@ -19023,24 +19023,24 @@
       </c>
       <c r="C414" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference </t>
+          <t>Video conference (skype)</t>
         </is>
       </c>
       <c r="D414" s="2451" t="inlineStr">
         <is>
-          <t>European Federation of National Organisations working with the Homeless, European Federation of Public Service Unions, European Disability Forum, AGE Platform Europe, European Social Network AISBL, SGI Europe, European Association of Service providers for Persons with Disabilities, European Ageing Network</t>
+          <t>AGE Platform Europe</t>
         </is>
       </c>
       <c r="E414" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference meeting on social support care service and COVID-19 </t>
+          <t>long-term care (LTC) and how LTC systems are affected by the current COVID crisis</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B415" s="2448" t="inlineStr">
@@ -19055,19 +19055,19 @@
       </c>
       <c r="D415" s="2451" t="inlineStr">
         <is>
-          <t>Organising Bureau of European School Student Unions</t>
+          <t>European Federation of National Organisations working with the Homeless, European Federation of Public Service Unions, European Disability Forum, AGE Platform Europe, European Social Network AISBL, SGI Europe, European Association of Service providers for Persons with Disabilities, European Ageing Network</t>
         </is>
       </c>
       <c r="E415" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference meeting on the impact of Covid-19 on learners, especially on VET learners. </t>
+          <t xml:space="preserve">Videoconference meeting on social support care service and COVID-19 </t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B416" s="2448" t="inlineStr">
@@ -19077,17 +19077,17 @@
       </c>
       <c r="C416" s="2451" t="inlineStr">
         <is>
-          <t>Video conference (skype)</t>
+          <t xml:space="preserve">Videoconference </t>
         </is>
       </c>
       <c r="D416" s="2451" t="inlineStr">
         <is>
-          <t>AGE Platform Europe</t>
+          <t>Organising Bureau of European School Student Unions</t>
         </is>
       </c>
       <c r="E416" s="2451" t="inlineStr">
         <is>
-          <t>long-term care (LTC) and how LTC systems are affected by the current COVID crisis</t>
+          <t xml:space="preserve">Videoconference meeting on the impact of Covid-19 on learners, especially on VET learners. </t>
         </is>
       </c>
     </row>
@@ -19121,7 +19121,7 @@
     <row r="418">
       <c r="A418" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Antoine Kasel, Ana Carla  Pereira</t>
+          <t>Antoine Kasel, Ana Carla  Pereira, Anouk Faber</t>
         </is>
       </c>
       <c r="B418" s="2448" t="inlineStr">
@@ -19202,7 +19202,7 @@
     <row r="421">
       <c r="A421" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B421" s="2448" t="inlineStr">
@@ -19229,7 +19229,7 @@
     <row r="422">
       <c r="A422" s="2451" t="inlineStr">
         <is>
-          <t>Eugenia Dumitriu-Segnana, Ana Carla  Pereira</t>
+          <t>Ana Carla  Pereira, Eugenia Dumitriu-Segnana</t>
         </is>
       </c>
       <c r="B422" s="2448" t="inlineStr">
@@ -19256,7 +19256,7 @@
     <row r="423">
       <c r="A423" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B423" s="2448" t="inlineStr">
@@ -19271,19 +19271,19 @@
       </c>
       <c r="D423" s="2451" t="inlineStr">
         <is>
-          <t>The Council of European Professional Informatics Societies</t>
+          <t>Lifelong Learning Platform</t>
         </is>
       </c>
       <c r="E423" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference meeting on Skills   </t>
+          <t xml:space="preserve">Videoconference meeting on Skills  </t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B424" s="2448" t="inlineStr">
@@ -19298,19 +19298,19 @@
       </c>
       <c r="D424" s="2451" t="inlineStr">
         <is>
-          <t>Lifelong Learning Platform</t>
+          <t>The Council of European Professional Informatics Societies</t>
         </is>
       </c>
       <c r="E424" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Videoconference meeting on Skills  </t>
+          <t xml:space="preserve">Videoconference meeting on Skills   </t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Antoine Kasel, Fabien Dell, Ana Carla  Pereira, Santina Bertulessi</t>
+          <t>Ana Carla  Pereira, Fabien Dell, Anouk Faber, Santina Bertulessi, Antoine Kasel</t>
         </is>
       </c>
       <c r="B425" s="2448" t="inlineStr">
@@ -19337,7 +19337,7 @@
     <row r="426">
       <c r="A426" s="2451" t="inlineStr">
         <is>
-          <t>Santina Bertulessi, Antoine Kasel, Anouk Faber, Fabien Dell, Ana Carla  Pereira</t>
+          <t>Santina Bertulessi, Fabien Dell, Antoine Kasel, Anouk Faber, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B426" s="2448" t="inlineStr">
@@ -19715,7 +19715,7 @@
     <row r="440">
       <c r="A440" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B440" s="2448" t="inlineStr">
@@ -19730,19 +19730,19 @@
       </c>
       <c r="D440" s="2451" t="inlineStr">
         <is>
-          <t>Manufacture Française des Pneumatiques Michelin</t>
+          <t>Deutsche Post DHL Group</t>
         </is>
       </c>
       <c r="E440" s="2451" t="inlineStr">
         <is>
-          <t>Updated Skills Agenda</t>
+          <t xml:space="preserve">Skills </t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Christoph Nerlich</t>
         </is>
       </c>
       <c r="B441" s="2448" t="inlineStr">
@@ -19757,19 +19757,19 @@
       </c>
       <c r="D441" s="2451" t="inlineStr">
         <is>
-          <t>Deutsche Post DHL Group</t>
+          <t>Manufacture Française des Pneumatiques Michelin</t>
         </is>
       </c>
       <c r="E441" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Skills </t>
+          <t>Updated Skills Agenda</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2451" t="inlineStr">
         <is>
-          <t>Santina Bertulessi, Anouk Faber</t>
+          <t>Anouk Faber, Santina Bertulessi</t>
         </is>
       </c>
       <c r="B442" s="2448" t="inlineStr">
@@ -19850,7 +19850,7 @@
     <row r="445">
       <c r="A445" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B445" s="2448" t="inlineStr">
@@ -19860,24 +19860,24 @@
       </c>
       <c r="C445" s="2451" t="inlineStr">
         <is>
-          <t>Bruxelles</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D445" s="2451" t="inlineStr">
         <is>
-          <t>Les Restaurants du Cœur</t>
+          <t>Danish Trade Union Confederation EU Office</t>
         </is>
       </c>
       <c r="E445" s="2451" t="inlineStr">
         <is>
-          <t>Lutte contre la pauvreté, ESF+</t>
+          <t xml:space="preserve">Commission proposal on minimum wages </t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B446" s="2448" t="inlineStr">
@@ -19887,17 +19887,17 @@
       </c>
       <c r="C446" s="2451" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Bruxelles</t>
         </is>
       </c>
       <c r="D446" s="2451" t="inlineStr">
         <is>
-          <t>Danish Trade Union Confederation EU Office</t>
+          <t>Les Restaurants du Cœur</t>
         </is>
       </c>
       <c r="E446" s="2451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Commission proposal on minimum wages </t>
+          <t>Lutte contre la pauvreté, ESF+</t>
         </is>
       </c>
     </row>
@@ -19931,7 +19931,7 @@
     <row r="448">
       <c r="A448" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Antoine Kasel, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich, Antoine Kasel</t>
         </is>
       </c>
       <c r="B448" s="2448" t="inlineStr">
@@ -20012,7 +20012,7 @@
     <row r="451">
       <c r="A451" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira</t>
+          <t>Antoine Kasel, Anouk Faber</t>
         </is>
       </c>
       <c r="B451" s="2448" t="inlineStr">
@@ -20027,19 +20027,19 @@
       </c>
       <c r="D451" s="2451" t="inlineStr">
         <is>
-          <t>European Anti Poverty Network</t>
+          <t>FEDIL - The Voice of Luxembourg's Industry</t>
         </is>
       </c>
       <c r="E451" s="2451" t="inlineStr">
         <is>
-          <t>Implementation of the action plan of the Social pilar, poverty</t>
+          <t>Skills, Industrial Strategy and SMEs</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Antoine Kasel</t>
+          <t>Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B452" s="2448" t="inlineStr">
@@ -20054,12 +20054,12 @@
       </c>
       <c r="D452" s="2451" t="inlineStr">
         <is>
-          <t>FEDIL - The Voice of Luxembourg's Industry</t>
+          <t>European Anti Poverty Network</t>
         </is>
       </c>
       <c r="E452" s="2451" t="inlineStr">
         <is>
-          <t>Skills, Industrial Strategy and SMEs</t>
+          <t>Implementation of the action plan of the Social pilar, poverty</t>
         </is>
       </c>
     </row>
@@ -20093,7 +20093,7 @@
     <row r="454">
       <c r="A454" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Santina Bertulessi</t>
+          <t>Santina Bertulessi, Anouk Faber</t>
         </is>
       </c>
       <c r="B454" s="2448" t="inlineStr">
@@ -20282,7 +20282,7 @@
     <row r="461">
       <c r="A461" s="2451" t="inlineStr">
         <is>
-          <t>Santina Bertulessi, Ana Carla  Pereira, Christoph Nerlich, Anouk Faber</t>
+          <t>Santina Bertulessi, Christoph Nerlich, Anouk Faber, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B461" s="2448" t="inlineStr">
@@ -20363,7 +20363,7 @@
     <row r="464">
       <c r="A464" s="2451" t="inlineStr">
         <is>
-          <t>Ana Carla  Pereira, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich, Fabien Dell</t>
         </is>
       </c>
       <c r="B464" s="2448" t="inlineStr">
@@ -20378,19 +20378,19 @@
       </c>
       <c r="D464" s="2451" t="inlineStr">
         <is>
-          <t>Confederazione Generale Italiana del Lavoro</t>
+          <t>LinkedIn Ireland</t>
         </is>
       </c>
       <c r="E464" s="2451" t="inlineStr">
         <is>
-          <t>Minimum wage</t>
+          <t>skills agenda</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber</t>
+          <t>Ana Carla  Pereira, Anouk Faber</t>
         </is>
       </c>
       <c r="B465" s="2448" t="inlineStr">
@@ -20405,19 +20405,19 @@
       </c>
       <c r="D465" s="2451" t="inlineStr">
         <is>
-          <t>INCO.ORG</t>
+          <t>Confederazione Generale Italiana del Lavoro</t>
         </is>
       </c>
       <c r="E465" s="2451" t="inlineStr">
         <is>
-          <t>Economie Sociale</t>
+          <t>Minimum wage</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber, Fabien Dell</t>
+          <t>Anouk Faber</t>
         </is>
       </c>
       <c r="B466" s="2448" t="inlineStr">
@@ -20432,12 +20432,12 @@
       </c>
       <c r="D466" s="2451" t="inlineStr">
         <is>
-          <t>LinkedIn Ireland</t>
+          <t>INCO.ORG</t>
         </is>
       </c>
       <c r="E466" s="2451" t="inlineStr">
         <is>
-          <t>skills agenda</t>
+          <t>Economie Sociale</t>
         </is>
       </c>
     </row>
@@ -20471,7 +20471,7 @@
     <row r="468">
       <c r="A468" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Antoine Kasel</t>
         </is>
       </c>
       <c r="B468" s="2448" t="inlineStr">
@@ -20481,24 +20481,24 @@
       </c>
       <c r="C468" s="2451" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Davos</t>
         </is>
       </c>
       <c r="D468" s="2451" t="inlineStr">
         <is>
-          <t>Deutscher Gewerkschaftsbund</t>
+          <t>Uber</t>
         </is>
       </c>
       <c r="E468" s="2451" t="inlineStr">
         <is>
-          <t>minimum wage,Roadmap</t>
+          <t>Skills agenda/Platform workers</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B469" s="2448" t="inlineStr">
@@ -20508,17 +20508,17 @@
       </c>
       <c r="C469" s="2451" t="inlineStr">
         <is>
-          <t>Davos</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D469" s="2451" t="inlineStr">
         <is>
-          <t>Uber</t>
+          <t>Deutscher Gewerkschaftsbund</t>
         </is>
       </c>
       <c r="E469" s="2451" t="inlineStr">
         <is>
-          <t>Skills agenda/Platform workers</t>
+          <t>minimum wage,Roadmap</t>
         </is>
       </c>
     </row>
@@ -20660,7 +20660,7 @@
     <row r="475">
       <c r="A475" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Antoine Kasel</t>
         </is>
       </c>
       <c r="B475" s="2448" t="inlineStr">
@@ -20670,24 +20670,24 @@
       </c>
       <c r="C475" s="2451" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D475" s="2451" t="inlineStr">
         <is>
-          <t>Deutscher Gewerkschaftsbund</t>
+          <t>PwC Legal</t>
         </is>
       </c>
       <c r="E475" s="2451" t="inlineStr">
         <is>
-          <t>Social Policies</t>
+          <t>Skills</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2451" t="inlineStr">
         <is>
-          <t>Anouk Faber, Christoph Nerlich</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B476" s="2448" t="inlineStr">
@@ -20702,19 +20702,19 @@
       </c>
       <c r="D476" s="2451" t="inlineStr">
         <is>
-          <t>Deutsche Industrie- und Handelskammer</t>
+          <t>Bundesverband der Deutschen Industrie e.V.</t>
         </is>
       </c>
       <c r="E476" s="2451" t="inlineStr">
         <is>
-          <t>Skilling</t>
+          <t>European Industry</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2451" t="inlineStr">
         <is>
-          <t>Antoine Kasel</t>
+          <t>Christoph Nerlich, Anouk Faber</t>
         </is>
       </c>
       <c r="B477" s="2448" t="inlineStr">
@@ -20724,24 +20724,24 @@
       </c>
       <c r="C477" s="2451" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Berlin</t>
         </is>
       </c>
       <c r="D477" s="2451" t="inlineStr">
         <is>
-          <t>PwC Legal</t>
+          <t>Deutsche Industrie- und Handelskammer</t>
         </is>
       </c>
       <c r="E477" s="2451" t="inlineStr">
         <is>
-          <t>Skills</t>
+          <t>Skilling</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2451" t="inlineStr">
         <is>
-          <t>Christoph Nerlich, Anouk Faber</t>
+          <t>Anouk Faber, Christoph Nerlich</t>
         </is>
       </c>
       <c r="B478" s="2448" t="inlineStr">
@@ -20756,12 +20756,12 @@
       </c>
       <c r="D478" s="2451" t="inlineStr">
         <is>
-          <t>Bundesverband der Deutschen Industrie e.V.</t>
+          <t>Deutscher Gewerkschaftsbund</t>
         </is>
       </c>
       <c r="E478" s="2451" t="inlineStr">
         <is>
-          <t>European Industry</t>
+          <t>Social Policies</t>
         </is>
       </c>
     </row>
@@ -20822,7 +20822,7 @@
     <row r="481">
       <c r="A481" s="2451" t="inlineStr">
         <is>
-          <t>Santina Bertulessi, Antoine Kasel, Ana Carla  Pereira, Anouk Faber</t>
+          <t>Antoine Kasel, Anouk Faber, Santina Bertulessi, Ana Carla  Pereira</t>
         </is>
       </c>
       <c r="B481" s="2448" t="inlineStr">
